--- a/UKG/Result_Final.xlsx
+++ b/UKG/Result_Final.xlsx
@@ -1161,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1188,13 +1188,13 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z2">
         <v>24</v>
@@ -1242,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI2">
         <v>20</v>
@@ -1269,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR2">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="AX2">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1323,139 +1323,139 @@
         <v>7</v>
       </c>
       <c r="BG2">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="BH2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="BK2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="BN2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS2">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="BT2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="BW2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BZ2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="CC2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="CF2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH2">
-        <v>111.33</v>
+        <v>91.67</v>
       </c>
       <c r="CI2">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="CJ2">
-        <v>126.5</v>
+        <v>82.5</v>
       </c>
       <c r="CK2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CL2">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="CM2">
-        <v>144.5</v>
+        <v>95.5</v>
       </c>
       <c r="CN2">
-        <v>109</v>
+        <v>72.5</v>
       </c>
       <c r="CO2">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="CP2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="CQ2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ2" t="s">
         <v>137</v>
@@ -1485,19 +1485,19 @@
         <v>137</v>
       </c>
       <c r="DI2">
-        <v>1050.33</v>
+        <v>710.1700000000001</v>
       </c>
       <c r="DJ2" t="s">
         <v>137</v>
       </c>
       <c r="DK2">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL2">
-        <v>83.35952380952381</v>
+        <v>78.90777777777778</v>
       </c>
       <c r="DM2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:117">
@@ -1514,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1541,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
         <v>24</v>
@@ -1568,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
         <v>25</v>
@@ -1595,13 +1595,13 @@
         <v>7</v>
       </c>
       <c r="AF3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI3">
         <v>25</v>
@@ -1622,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR3">
         <v>24</v>
@@ -1649,13 +1649,13 @@
         <v>7</v>
       </c>
       <c r="AX3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA3">
         <v>25</v>
@@ -1676,139 +1676,139 @@
         <v>7</v>
       </c>
       <c r="BG3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ3">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="BK3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS3">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="BT3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV3">
+        <v>49.5</v>
+      </c>
+      <c r="BW3">
+        <v>50</v>
+      </c>
+      <c r="BX3">
+        <v>15</v>
+      </c>
+      <c r="BY3">
+        <v>40</v>
+      </c>
+      <c r="BZ3">
+        <v>50</v>
+      </c>
+      <c r="CA3">
+        <v>15</v>
+      </c>
+      <c r="CB3">
+        <v>49</v>
+      </c>
+      <c r="CC3">
+        <v>50</v>
+      </c>
+      <c r="CD3">
+        <v>15</v>
+      </c>
+      <c r="CE3">
+        <v>49.5</v>
+      </c>
+      <c r="CF3">
+        <v>50</v>
+      </c>
+      <c r="CG3">
+        <v>15</v>
+      </c>
+      <c r="CH3">
+        <v>97.5</v>
+      </c>
+      <c r="CI3">
+        <v>96</v>
+      </c>
+      <c r="CJ3">
+        <v>96</v>
+      </c>
+      <c r="CK3">
+        <v>97.5</v>
+      </c>
+      <c r="CL3">
+        <v>95</v>
+      </c>
+      <c r="CM3">
+        <v>99.5</v>
+      </c>
+      <c r="CN3">
+        <v>90</v>
+      </c>
+      <c r="CO3">
         <v>99</v>
       </c>
-      <c r="BW3">
-        <v>100</v>
-      </c>
-      <c r="BX3">
-        <v>30</v>
-      </c>
-      <c r="BY3">
-        <v>80</v>
-      </c>
-      <c r="BZ3">
-        <v>100</v>
-      </c>
-      <c r="CA3">
-        <v>30</v>
-      </c>
-      <c r="CB3">
-        <v>98</v>
-      </c>
-      <c r="CC3">
-        <v>100</v>
-      </c>
-      <c r="CD3">
-        <v>30</v>
-      </c>
-      <c r="CE3">
-        <v>99</v>
-      </c>
-      <c r="CF3">
-        <v>100</v>
-      </c>
-      <c r="CG3">
-        <v>30</v>
-      </c>
-      <c r="CH3">
-        <v>119</v>
-      </c>
-      <c r="CI3">
-        <v>142</v>
-      </c>
-      <c r="CJ3">
-        <v>146</v>
-      </c>
-      <c r="CK3">
-        <v>119</v>
-      </c>
-      <c r="CL3">
-        <v>142</v>
-      </c>
-      <c r="CM3">
-        <v>149</v>
-      </c>
-      <c r="CN3">
-        <v>100</v>
-      </c>
-      <c r="CO3">
-        <v>148</v>
-      </c>
       <c r="CP3">
-        <v>145.5</v>
+        <v>96</v>
       </c>
       <c r="CQ3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ3" t="s">
         <v>137</v>
@@ -1838,16 +1838,16 @@
         <v>137</v>
       </c>
       <c r="DI3">
-        <v>1210.5</v>
+        <v>866.5</v>
       </c>
       <c r="DJ3" t="s">
         <v>137</v>
       </c>
       <c r="DK3">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL3">
-        <v>96.07142857142857</v>
+        <v>96.27777777777777</v>
       </c>
       <c r="DM3">
         <v>2</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1894,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1921,13 +1921,13 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z4">
         <v>9</v>
@@ -1948,13 +1948,13 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AG4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI4">
         <v>5</v>
@@ -1975,13 +1975,13 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AP4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR4">
         <v>8</v>
@@ -2002,13 +2002,13 @@
         <v>7</v>
       </c>
       <c r="AX4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2029,139 +2029,139 @@
         <v>7</v>
       </c>
       <c r="BG4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BH4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BK4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP4">
-        <v>83.33333333333333</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="BQ4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="BT4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV4">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="BW4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BZ4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CC4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE4">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="CF4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH4">
-        <v>57</v>
+        <v>42.5</v>
       </c>
       <c r="CI4">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="CJ4">
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>97.33</v>
+        <v>76.67</v>
       </c>
       <c r="CL4">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="CM4">
-        <v>26.7</v>
+        <v>15.2</v>
       </c>
       <c r="CN4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="CO4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="CP4">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="CQ4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ4" t="s">
         <v>137</v>
@@ -2191,16 +2191,16 @@
         <v>138</v>
       </c>
       <c r="DI4">
-        <v>382.03</v>
+        <v>279.87</v>
       </c>
       <c r="DJ4" t="s">
         <v>137</v>
       </c>
       <c r="DK4">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL4">
-        <v>30.31984126984127</v>
+        <v>31.09666666666667</v>
       </c>
       <c r="DM4">
         <v>18</v>
@@ -2220,13 +2220,13 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H5">
         <v>25</v>
@@ -2247,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
         <v>19</v>
@@ -2274,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z5">
         <v>24</v>
@@ -2301,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI5">
         <v>23</v>
@@ -2328,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AP5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR5">
         <v>15</v>
@@ -2355,13 +2355,13 @@
         <v>7</v>
       </c>
       <c r="AX5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA5">
         <v>21</v>
@@ -2382,139 +2382,139 @@
         <v>7</v>
       </c>
       <c r="BG5">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="BH5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ5">
+        <v>48</v>
+      </c>
+      <c r="BK5">
+        <v>50</v>
+      </c>
+      <c r="BL5">
+        <v>15</v>
+      </c>
+      <c r="BM5">
+        <v>42.5</v>
+      </c>
+      <c r="BN5">
+        <v>50</v>
+      </c>
+      <c r="BO5">
+        <v>15</v>
+      </c>
+      <c r="BP5">
+        <v>50</v>
+      </c>
+      <c r="BQ5">
+        <v>50</v>
+      </c>
+      <c r="BR5">
+        <v>15</v>
+      </c>
+      <c r="BS5">
+        <v>35</v>
+      </c>
+      <c r="BT5">
+        <v>50</v>
+      </c>
+      <c r="BU5">
+        <v>15</v>
+      </c>
+      <c r="BV5">
+        <v>48</v>
+      </c>
+      <c r="BW5">
+        <v>50</v>
+      </c>
+      <c r="BX5">
+        <v>15</v>
+      </c>
+      <c r="BY5">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="BZ5">
+        <v>50</v>
+      </c>
+      <c r="CA5">
+        <v>15</v>
+      </c>
+      <c r="CB5">
+        <v>49</v>
+      </c>
+      <c r="CC5">
+        <v>50</v>
+      </c>
+      <c r="CD5">
+        <v>15</v>
+      </c>
+      <c r="CE5">
+        <v>45</v>
+      </c>
+      <c r="CF5">
+        <v>50</v>
+      </c>
+      <c r="CG5">
+        <v>15</v>
+      </c>
+      <c r="CH5">
+        <v>94.17</v>
+      </c>
+      <c r="CI5">
         <v>96</v>
       </c>
-      <c r="BK5">
-        <v>100</v>
-      </c>
-      <c r="BL5">
-        <v>30</v>
-      </c>
-      <c r="BM5">
-        <v>85</v>
-      </c>
-      <c r="BN5">
-        <v>100</v>
-      </c>
-      <c r="BO5">
-        <v>30</v>
-      </c>
-      <c r="BP5">
-        <v>100</v>
-      </c>
-      <c r="BQ5">
-        <v>100</v>
-      </c>
-      <c r="BR5">
-        <v>30</v>
-      </c>
-      <c r="BS5">
-        <v>70</v>
-      </c>
-      <c r="BT5">
-        <v>100</v>
-      </c>
-      <c r="BU5">
-        <v>30</v>
-      </c>
-      <c r="BV5">
-        <v>96</v>
-      </c>
-      <c r="BW5">
-        <v>100</v>
-      </c>
-      <c r="BX5">
-        <v>30</v>
-      </c>
-      <c r="BY5">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="BZ5">
-        <v>100</v>
-      </c>
-      <c r="CA5">
-        <v>30</v>
-      </c>
-      <c r="CB5">
-        <v>98</v>
-      </c>
-      <c r="CC5">
-        <v>100</v>
-      </c>
-      <c r="CD5">
-        <v>30</v>
-      </c>
-      <c r="CE5">
-        <v>90</v>
-      </c>
-      <c r="CF5">
-        <v>100</v>
-      </c>
-      <c r="CG5">
-        <v>30</v>
-      </c>
-      <c r="CH5">
-        <v>112.33</v>
-      </c>
-      <c r="CI5">
-        <v>144</v>
-      </c>
       <c r="CJ5">
-        <v>123</v>
+        <v>80.5</v>
       </c>
       <c r="CK5">
-        <v>119</v>
+        <v>97.5</v>
       </c>
       <c r="CL5">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="CM5">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="CN5">
-        <v>103.33</v>
+        <v>91.67</v>
       </c>
       <c r="CO5">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="CP5">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="CQ5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ5" t="s">
         <v>137</v>
@@ -2544,16 +2544,16 @@
         <v>137</v>
       </c>
       <c r="DI5">
-        <v>1107.66</v>
+        <v>788.84</v>
       </c>
       <c r="DJ5" t="s">
         <v>137</v>
       </c>
       <c r="DK5">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL5">
-        <v>87.90952380952379</v>
+        <v>87.64888888888889</v>
       </c>
       <c r="DM5">
         <v>5</v>
@@ -2573,13 +2573,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2600,13 +2600,13 @@
         <v>7</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -2627,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z6">
         <v>12</v>
@@ -2654,13 +2654,13 @@
         <v>7</v>
       </c>
       <c r="AF6">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AG6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AP6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2708,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="AX6">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -2735,139 +2735,139 @@
         <v>7</v>
       </c>
       <c r="BG6">
-        <v>83.33333333333333</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="BH6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI6">
+        <v>15</v>
+      </c>
+      <c r="BJ6">
+        <v>33</v>
+      </c>
+      <c r="BK6">
+        <v>50</v>
+      </c>
+      <c r="BL6">
+        <v>15</v>
+      </c>
+      <c r="BM6">
+        <v>26</v>
+      </c>
+      <c r="BN6">
+        <v>50</v>
+      </c>
+      <c r="BO6">
+        <v>15</v>
+      </c>
+      <c r="BP6">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="BQ6">
+        <v>50</v>
+      </c>
+      <c r="BR6">
+        <v>15</v>
+      </c>
+      <c r="BS6">
+        <v>35</v>
+      </c>
+      <c r="BT6">
+        <v>50</v>
+      </c>
+      <c r="BU6">
+        <v>15</v>
+      </c>
+      <c r="BV6">
+        <v>46</v>
+      </c>
+      <c r="BW6">
+        <v>50</v>
+      </c>
+      <c r="BX6">
+        <v>15</v>
+      </c>
+      <c r="BY6">
         <v>30</v>
       </c>
-      <c r="BJ6">
-        <v>66</v>
-      </c>
-      <c r="BK6">
-        <v>100</v>
-      </c>
-      <c r="BL6">
-        <v>30</v>
-      </c>
-      <c r="BM6">
-        <v>52</v>
-      </c>
-      <c r="BN6">
-        <v>100</v>
-      </c>
-      <c r="BO6">
-        <v>30</v>
-      </c>
-      <c r="BP6">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="BQ6">
-        <v>100</v>
-      </c>
-      <c r="BR6">
-        <v>30</v>
-      </c>
-      <c r="BS6">
-        <v>70</v>
-      </c>
-      <c r="BT6">
-        <v>100</v>
-      </c>
-      <c r="BU6">
-        <v>30</v>
-      </c>
-      <c r="BV6">
-        <v>92</v>
-      </c>
-      <c r="BW6">
-        <v>100</v>
-      </c>
-      <c r="BX6">
-        <v>30</v>
-      </c>
-      <c r="BY6">
-        <v>60</v>
-      </c>
       <c r="BZ6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB6">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="CC6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE6">
-        <v>63</v>
+        <v>31.5</v>
       </c>
       <c r="CF6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH6">
-        <v>99.33</v>
+        <v>81.67</v>
       </c>
       <c r="CI6">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="CJ6">
-        <v>57.5</v>
+        <v>31.5</v>
       </c>
       <c r="CK6">
-        <v>99.33</v>
+        <v>81.67</v>
       </c>
       <c r="CL6">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="CM6">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="CN6">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="CO6">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="CP6">
-        <v>99</v>
+        <v>67.5</v>
       </c>
       <c r="CQ6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ6" t="s">
         <v>137</v>
@@ -2897,16 +2897,16 @@
         <v>137</v>
       </c>
       <c r="DI6">
-        <v>809.16</v>
+        <v>557.34</v>
       </c>
       <c r="DJ6" t="s">
         <v>137</v>
       </c>
       <c r="DK6">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL6">
-        <v>64.21904761904761</v>
+        <v>61.92666666666668</v>
       </c>
       <c r="DM6">
         <v>13</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H7">
         <v>13</v>
@@ -2953,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2980,13 +2980,13 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z7">
         <v>18</v>
@@ -3007,13 +3007,13 @@
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AG7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI7">
         <v>18</v>
@@ -3034,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="AO7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AP7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR7">
         <v>10</v>
@@ -3061,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="AX7">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AY7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA7">
         <v>11</v>
@@ -3088,139 +3088,139 @@
         <v>7</v>
       </c>
       <c r="BG7">
-        <v>33.33333333333334</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="BH7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI7">
+        <v>15</v>
+      </c>
+      <c r="BJ7">
+        <v>41</v>
+      </c>
+      <c r="BK7">
+        <v>50</v>
+      </c>
+      <c r="BL7">
+        <v>15</v>
+      </c>
+      <c r="BM7">
+        <v>7</v>
+      </c>
+      <c r="BN7">
+        <v>50</v>
+      </c>
+      <c r="BO7">
+        <v>15</v>
+      </c>
+      <c r="BP7">
+        <v>25</v>
+      </c>
+      <c r="BQ7">
+        <v>50</v>
+      </c>
+      <c r="BR7">
+        <v>15</v>
+      </c>
+      <c r="BS7">
+        <v>23</v>
+      </c>
+      <c r="BT7">
+        <v>50</v>
+      </c>
+      <c r="BU7">
+        <v>15</v>
+      </c>
+      <c r="BV7">
         <v>30</v>
       </c>
-      <c r="BJ7">
-        <v>82</v>
-      </c>
-      <c r="BK7">
-        <v>100</v>
-      </c>
-      <c r="BL7">
+      <c r="BW7">
+        <v>50</v>
+      </c>
+      <c r="BX7">
+        <v>15</v>
+      </c>
+      <c r="BY7">
         <v>30</v>
       </c>
-      <c r="BM7">
+      <c r="BZ7">
+        <v>50</v>
+      </c>
+      <c r="CA7">
+        <v>15</v>
+      </c>
+      <c r="CB7">
+        <v>25</v>
+      </c>
+      <c r="CC7">
+        <v>50</v>
+      </c>
+      <c r="CD7">
+        <v>15</v>
+      </c>
+      <c r="CE7">
         <v>14</v>
       </c>
-      <c r="BN7">
-        <v>100</v>
-      </c>
-      <c r="BO7">
-        <v>30</v>
-      </c>
-      <c r="BP7">
-        <v>50</v>
-      </c>
-      <c r="BQ7">
-        <v>100</v>
-      </c>
-      <c r="BR7">
-        <v>30</v>
-      </c>
-      <c r="BS7">
-        <v>46</v>
-      </c>
-      <c r="BT7">
-        <v>100</v>
-      </c>
-      <c r="BU7">
-        <v>30</v>
-      </c>
-      <c r="BV7">
+      <c r="CF7">
+        <v>50</v>
+      </c>
+      <c r="CG7">
+        <v>15</v>
+      </c>
+      <c r="CH7">
+        <v>31.67</v>
+      </c>
+      <c r="CI7">
+        <v>72</v>
+      </c>
+      <c r="CJ7">
+        <v>20.5</v>
+      </c>
+      <c r="CK7">
+        <v>52.5</v>
+      </c>
+      <c r="CL7">
+        <v>41</v>
+      </c>
+      <c r="CM7">
+        <v>67</v>
+      </c>
+      <c r="CN7">
         <v>60</v>
       </c>
-      <c r="BW7">
-        <v>100</v>
-      </c>
-      <c r="BX7">
-        <v>30</v>
-      </c>
-      <c r="BY7">
-        <v>60</v>
-      </c>
-      <c r="BZ7">
-        <v>100</v>
-      </c>
-      <c r="CA7">
-        <v>30</v>
-      </c>
-      <c r="CB7">
-        <v>50</v>
-      </c>
-      <c r="CC7">
-        <v>100</v>
-      </c>
-      <c r="CD7">
-        <v>30</v>
-      </c>
-      <c r="CE7">
-        <v>28</v>
-      </c>
-      <c r="CF7">
-        <v>100</v>
-      </c>
-      <c r="CG7">
-        <v>30</v>
-      </c>
-      <c r="CH7">
-        <v>39.33</v>
-      </c>
-      <c r="CI7">
-        <v>113</v>
-      </c>
-      <c r="CJ7">
-        <v>27.5</v>
-      </c>
-      <c r="CK7">
-        <v>61</v>
-      </c>
-      <c r="CL7">
-        <v>64</v>
-      </c>
-      <c r="CM7">
-        <v>97</v>
-      </c>
-      <c r="CN7">
-        <v>72</v>
-      </c>
       <c r="CO7">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="CP7">
-        <v>37.5</v>
+        <v>23.5</v>
       </c>
       <c r="CQ7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ7" t="s">
         <v>137</v>
@@ -3250,16 +3250,16 @@
         <v>138</v>
       </c>
       <c r="DI7">
-        <v>590.3299999999999</v>
+        <v>422.17</v>
       </c>
       <c r="DJ7" t="s">
         <v>137</v>
       </c>
       <c r="DK7">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL7">
-        <v>46.85158730158729</v>
+        <v>46.90777777777778</v>
       </c>
       <c r="DM7">
         <v>17</v>
@@ -3279,13 +3279,13 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -3306,13 +3306,13 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
         <v>22</v>
@@ -3333,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z8">
         <v>23</v>
@@ -3360,13 +3360,13 @@
         <v>7</v>
       </c>
       <c r="AF8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI8">
         <v>23</v>
@@ -3387,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="AO8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR8">
         <v>15</v>
@@ -3414,13 +3414,13 @@
         <v>7</v>
       </c>
       <c r="AX8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA8">
         <v>19</v>
@@ -3441,139 +3441,139 @@
         <v>7</v>
       </c>
       <c r="BG8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ8">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="BK8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM8">
-        <v>55</v>
+        <v>27.5</v>
       </c>
       <c r="BN8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BT8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV8">
-        <v>87</v>
+        <v>43.5</v>
       </c>
       <c r="BW8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY8">
-        <v>73.33333333333333</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="BZ8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB8">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="CC8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE8">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="CF8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH8">
-        <v>117</v>
+        <v>92.5</v>
       </c>
       <c r="CI8">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="CJ8">
-        <v>75</v>
+        <v>47.5</v>
       </c>
       <c r="CK8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CL8">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="CM8">
-        <v>135</v>
+        <v>91.5</v>
       </c>
       <c r="CN8">
-        <v>89.33</v>
+        <v>76.67</v>
       </c>
       <c r="CO8">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="CP8">
-        <v>100</v>
+        <v>64.5</v>
       </c>
       <c r="CQ8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ8" t="s">
         <v>137</v>
@@ -3603,19 +3603,19 @@
         <v>137</v>
       </c>
       <c r="DI8">
-        <v>1020.33</v>
+        <v>724.67</v>
       </c>
       <c r="DJ8" t="s">
         <v>137</v>
       </c>
       <c r="DK8">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL8">
-        <v>80.97857142857143</v>
+        <v>80.51888888888888</v>
       </c>
       <c r="DM8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:117">
@@ -3632,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -3659,13 +3659,13 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -3686,13 +3686,13 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z9">
         <v>24</v>
@@ -3713,13 +3713,13 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI9">
         <v>25</v>
@@ -3740,13 +3740,13 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AP9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR9">
         <v>20</v>
@@ -3767,13 +3767,13 @@
         <v>7</v>
       </c>
       <c r="AX9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA9">
         <v>24</v>
@@ -3794,139 +3794,139 @@
         <v>7</v>
       </c>
       <c r="BG9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM9">
-        <v>83</v>
+        <v>41.5</v>
       </c>
       <c r="BN9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS9">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="BT9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BW9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY9">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="BZ9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB9">
+        <v>49</v>
+      </c>
+      <c r="CC9">
+        <v>50</v>
+      </c>
+      <c r="CD9">
+        <v>15</v>
+      </c>
+      <c r="CE9">
+        <v>50</v>
+      </c>
+      <c r="CF9">
+        <v>50</v>
+      </c>
+      <c r="CG9">
+        <v>15</v>
+      </c>
+      <c r="CH9">
+        <v>97.5</v>
+      </c>
+      <c r="CI9">
+        <v>100</v>
+      </c>
+      <c r="CJ9">
+        <v>79.5</v>
+      </c>
+      <c r="CK9">
+        <v>97.5</v>
+      </c>
+      <c r="CL9">
+        <v>89</v>
+      </c>
+      <c r="CM9">
         <v>98</v>
       </c>
-      <c r="CC9">
-        <v>100</v>
-      </c>
-      <c r="CD9">
-        <v>30</v>
-      </c>
-      <c r="CE9">
-        <v>100</v>
-      </c>
-      <c r="CF9">
-        <v>100</v>
-      </c>
-      <c r="CG9">
-        <v>30</v>
-      </c>
-      <c r="CH9">
-        <v>119</v>
-      </c>
-      <c r="CI9">
-        <v>150</v>
-      </c>
-      <c r="CJ9">
-        <v>121</v>
-      </c>
-      <c r="CK9">
-        <v>119</v>
-      </c>
-      <c r="CL9">
-        <v>135</v>
-      </c>
-      <c r="CM9">
-        <v>148</v>
-      </c>
       <c r="CN9">
-        <v>113.33</v>
+        <v>96.67</v>
       </c>
       <c r="CO9">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="CP9">
-        <v>141.5</v>
+        <v>91.5</v>
       </c>
       <c r="CQ9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ9" t="s">
         <v>137</v>
@@ -3956,16 +3956,16 @@
         <v>137</v>
       </c>
       <c r="DI9">
-        <v>1192.83</v>
+        <v>846.67</v>
       </c>
       <c r="DJ9" t="s">
         <v>137</v>
       </c>
       <c r="DK9">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL9">
-        <v>94.6690476190476</v>
+        <v>94.07444444444444</v>
       </c>
       <c r="DM9">
         <v>3</v>
@@ -3985,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
         <v>25</v>
@@ -4012,13 +4012,13 @@
         <v>7</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q10">
         <v>23</v>
@@ -4039,13 +4039,13 @@
         <v>7</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z10">
         <v>22</v>
@@ -4066,13 +4066,13 @@
         <v>7</v>
       </c>
       <c r="AF10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI10">
         <v>25</v>
@@ -4093,13 +4093,13 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AP10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR10">
         <v>20</v>
@@ -4120,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="AX10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA10">
         <v>25</v>
@@ -4147,139 +4147,139 @@
         <v>7</v>
       </c>
       <c r="BG10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM10">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="BN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS10">
+        <v>43</v>
+      </c>
+      <c r="BT10">
+        <v>50</v>
+      </c>
+      <c r="BU10">
+        <v>15</v>
+      </c>
+      <c r="BV10">
+        <v>49.5</v>
+      </c>
+      <c r="BW10">
+        <v>50</v>
+      </c>
+      <c r="BX10">
+        <v>15</v>
+      </c>
+      <c r="BY10">
+        <v>50</v>
+      </c>
+      <c r="BZ10">
+        <v>50</v>
+      </c>
+      <c r="CA10">
+        <v>15</v>
+      </c>
+      <c r="CB10">
+        <v>50</v>
+      </c>
+      <c r="CC10">
+        <v>50</v>
+      </c>
+      <c r="CD10">
+        <v>15</v>
+      </c>
+      <c r="CE10">
+        <v>41</v>
+      </c>
+      <c r="CF10">
+        <v>50</v>
+      </c>
+      <c r="CG10">
+        <v>15</v>
+      </c>
+      <c r="CH10">
+        <v>100</v>
+      </c>
+      <c r="CI10">
+        <v>100</v>
+      </c>
+      <c r="CJ10">
+        <v>84</v>
+      </c>
+      <c r="CK10">
+        <v>97.5</v>
+      </c>
+      <c r="CL10">
         <v>86</v>
       </c>
-      <c r="BT10">
-        <v>100</v>
-      </c>
-      <c r="BU10">
-        <v>30</v>
-      </c>
-      <c r="BV10">
-        <v>99</v>
-      </c>
-      <c r="BW10">
-        <v>100</v>
-      </c>
-      <c r="BX10">
-        <v>30</v>
-      </c>
-      <c r="BY10">
-        <v>100</v>
-      </c>
-      <c r="BZ10">
-        <v>100</v>
-      </c>
-      <c r="CA10">
-        <v>30</v>
-      </c>
-      <c r="CB10">
-        <v>100</v>
-      </c>
-      <c r="CC10">
-        <v>100</v>
-      </c>
-      <c r="CD10">
-        <v>30</v>
-      </c>
-      <c r="CE10">
-        <v>82</v>
-      </c>
-      <c r="CF10">
-        <v>100</v>
-      </c>
-      <c r="CG10">
-        <v>30</v>
-      </c>
-      <c r="CH10">
-        <v>120</v>
-      </c>
-      <c r="CI10">
-        <v>150</v>
-      </c>
-      <c r="CJ10">
-        <v>128</v>
-      </c>
-      <c r="CK10">
-        <v>119</v>
-      </c>
-      <c r="CL10">
-        <v>129</v>
-      </c>
       <c r="CM10">
-        <v>147</v>
+        <v>97.5</v>
       </c>
       <c r="CN10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CO10">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="CP10">
-        <v>119.5</v>
+        <v>78.5</v>
       </c>
       <c r="CQ10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ10" t="s">
         <v>137</v>
@@ -4309,16 +4309,16 @@
         <v>137</v>
       </c>
       <c r="DI10">
-        <v>1179.5</v>
+        <v>840.5</v>
       </c>
       <c r="DJ10" t="s">
         <v>137</v>
       </c>
       <c r="DK10">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL10">
-        <v>93.61111111111111</v>
+        <v>93.38888888888889</v>
       </c>
       <c r="DM10">
         <v>4</v>
@@ -4338,13 +4338,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -4365,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q11">
         <v>13</v>
@@ -4392,13 +4392,13 @@
         <v>7</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z11">
         <v>17</v>
@@ -4419,13 +4419,13 @@
         <v>7</v>
       </c>
       <c r="AF11">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AG11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI11">
         <v>21</v>
@@ -4446,13 +4446,13 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AP11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR11">
         <v>14</v>
@@ -4473,13 +4473,13 @@
         <v>7</v>
       </c>
       <c r="AX11">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AY11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA11">
         <v>18</v>
@@ -4500,139 +4500,139 @@
         <v>7</v>
       </c>
       <c r="BG11">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BH11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ11">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="BK11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM11">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BN11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP11">
-        <v>73.33333333333333</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="BQ11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS11">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="BT11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV11">
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="BW11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY11">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BZ11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="CC11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE11">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="CF11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH11">
-        <v>78.67</v>
+        <v>63.33</v>
       </c>
       <c r="CI11">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="CJ11">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="CK11">
-        <v>85.33</v>
+        <v>66.67</v>
       </c>
       <c r="CL11">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="CM11">
-        <v>105</v>
+        <v>64.5</v>
       </c>
       <c r="CN11">
-        <v>80.67</v>
+        <v>68.33</v>
       </c>
       <c r="CO11">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="CP11">
-        <v>62</v>
+        <v>37.5</v>
       </c>
       <c r="CQ11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ11" t="s">
         <v>137</v>
@@ -4662,16 +4662,16 @@
         <v>137</v>
       </c>
       <c r="DI11">
-        <v>708.67</v>
+        <v>497.83</v>
       </c>
       <c r="DJ11" t="s">
         <v>137</v>
       </c>
       <c r="DK11">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL11">
-        <v>56.24365079365079</v>
+        <v>55.31444444444445</v>
       </c>
       <c r="DM11">
         <v>16</v>
@@ -4691,13 +4691,13 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H12">
         <v>21</v>
@@ -4718,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q12">
         <v>22</v>
@@ -4745,13 +4745,13 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z12">
         <v>25</v>
@@ -4772,13 +4772,13 @@
         <v>7</v>
       </c>
       <c r="AF12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI12">
         <v>19</v>
@@ -4799,13 +4799,13 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR12">
         <v>17</v>
@@ -4826,13 +4826,13 @@
         <v>7</v>
       </c>
       <c r="AX12">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AY12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA12">
         <v>24</v>
@@ -4853,139 +4853,139 @@
         <v>7</v>
       </c>
       <c r="BG12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ12">
+        <v>40</v>
+      </c>
+      <c r="BK12">
+        <v>50</v>
+      </c>
+      <c r="BL12">
+        <v>15</v>
+      </c>
+      <c r="BM12">
+        <v>36</v>
+      </c>
+      <c r="BN12">
+        <v>50</v>
+      </c>
+      <c r="BO12">
+        <v>15</v>
+      </c>
+      <c r="BP12">
+        <v>45</v>
+      </c>
+      <c r="BQ12">
+        <v>50</v>
+      </c>
+      <c r="BR12">
+        <v>15</v>
+      </c>
+      <c r="BS12">
+        <v>38</v>
+      </c>
+      <c r="BT12">
+        <v>50</v>
+      </c>
+      <c r="BU12">
+        <v>15</v>
+      </c>
+      <c r="BV12">
+        <v>47</v>
+      </c>
+      <c r="BW12">
+        <v>50</v>
+      </c>
+      <c r="BX12">
+        <v>15</v>
+      </c>
+      <c r="BY12">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="BZ12">
+        <v>50</v>
+      </c>
+      <c r="CA12">
+        <v>15</v>
+      </c>
+      <c r="CB12">
+        <v>49</v>
+      </c>
+      <c r="CC12">
+        <v>50</v>
+      </c>
+      <c r="CD12">
+        <v>15</v>
+      </c>
+      <c r="CE12">
+        <v>37</v>
+      </c>
+      <c r="CF12">
+        <v>50</v>
+      </c>
+      <c r="CG12">
+        <v>15</v>
+      </c>
+      <c r="CH12">
+        <v>100</v>
+      </c>
+      <c r="CI12">
         <v>80</v>
       </c>
-      <c r="BK12">
-        <v>100</v>
-      </c>
-      <c r="BL12">
-        <v>30</v>
-      </c>
-      <c r="BM12">
-        <v>72</v>
-      </c>
-      <c r="BN12">
-        <v>100</v>
-      </c>
-      <c r="BO12">
-        <v>30</v>
-      </c>
-      <c r="BP12">
-        <v>90</v>
-      </c>
-      <c r="BQ12">
-        <v>100</v>
-      </c>
-      <c r="BR12">
-        <v>30</v>
-      </c>
-      <c r="BS12">
-        <v>76</v>
-      </c>
-      <c r="BT12">
-        <v>100</v>
-      </c>
-      <c r="BU12">
-        <v>30</v>
-      </c>
-      <c r="BV12">
-        <v>94</v>
-      </c>
-      <c r="BW12">
-        <v>100</v>
-      </c>
-      <c r="BX12">
-        <v>30</v>
-      </c>
-      <c r="BY12">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="BZ12">
-        <v>100</v>
-      </c>
-      <c r="CA12">
-        <v>30</v>
-      </c>
-      <c r="CB12">
+      <c r="CJ12">
+        <v>68.5</v>
+      </c>
+      <c r="CK12">
+        <v>92.5</v>
+      </c>
+      <c r="CL12">
+        <v>77</v>
+      </c>
+      <c r="CM12">
+        <v>97</v>
+      </c>
+      <c r="CN12">
+        <v>90.83</v>
+      </c>
+      <c r="CO12">
         <v>98</v>
       </c>
-      <c r="CC12">
-        <v>100</v>
-      </c>
-      <c r="CD12">
-        <v>30</v>
-      </c>
-      <c r="CE12">
-        <v>74</v>
-      </c>
-      <c r="CF12">
-        <v>100</v>
-      </c>
-      <c r="CG12">
-        <v>30</v>
-      </c>
-      <c r="CH12">
-        <v>120</v>
-      </c>
-      <c r="CI12">
-        <v>120</v>
-      </c>
-      <c r="CJ12">
-        <v>104.5</v>
-      </c>
-      <c r="CK12">
-        <v>109</v>
-      </c>
-      <c r="CL12">
-        <v>115</v>
-      </c>
-      <c r="CM12">
-        <v>144</v>
-      </c>
-      <c r="CN12">
-        <v>105.67</v>
-      </c>
-      <c r="CO12">
-        <v>147</v>
-      </c>
       <c r="CP12">
-        <v>102.5</v>
+        <v>65.5</v>
       </c>
       <c r="CQ12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ12" t="s">
         <v>137</v>
@@ -5015,16 +5015,16 @@
         <v>137</v>
       </c>
       <c r="DI12">
-        <v>1067.67</v>
+        <v>769.33</v>
       </c>
       <c r="DJ12" t="s">
         <v>137</v>
       </c>
       <c r="DK12">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL12">
-        <v>84.73571428571429</v>
+        <v>85.48111111111112</v>
       </c>
       <c r="DM12">
         <v>6</v>
@@ -5044,13 +5044,13 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H13">
         <v>25</v>
@@ -5071,13 +5071,13 @@
         <v>7</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q13">
         <v>24</v>
@@ -5098,13 +5098,13 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z13">
         <v>25</v>
@@ -5125,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="AF13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI13">
         <v>25</v>
@@ -5152,13 +5152,13 @@
         <v>7</v>
       </c>
       <c r="AO13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR13">
         <v>23</v>
@@ -5179,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="AX13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA13">
         <v>25</v>
@@ -5206,139 +5206,139 @@
         <v>7</v>
       </c>
       <c r="BG13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BK13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM13">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="BN13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS13">
+        <v>47</v>
+      </c>
+      <c r="BT13">
+        <v>50</v>
+      </c>
+      <c r="BU13">
+        <v>15</v>
+      </c>
+      <c r="BV13">
+        <v>50</v>
+      </c>
+      <c r="BW13">
+        <v>50</v>
+      </c>
+      <c r="BX13">
+        <v>15</v>
+      </c>
+      <c r="BY13">
+        <v>50</v>
+      </c>
+      <c r="BZ13">
+        <v>50</v>
+      </c>
+      <c r="CA13">
+        <v>15</v>
+      </c>
+      <c r="CB13">
+        <v>50</v>
+      </c>
+      <c r="CC13">
+        <v>50</v>
+      </c>
+      <c r="CD13">
+        <v>15</v>
+      </c>
+      <c r="CE13">
+        <v>50</v>
+      </c>
+      <c r="CF13">
+        <v>50</v>
+      </c>
+      <c r="CG13">
+        <v>15</v>
+      </c>
+      <c r="CH13">
+        <v>100</v>
+      </c>
+      <c r="CI13">
+        <v>100</v>
+      </c>
+      <c r="CJ13">
+        <v>97</v>
+      </c>
+      <c r="CK13">
+        <v>100</v>
+      </c>
+      <c r="CL13">
         <v>94</v>
       </c>
-      <c r="BT13">
-        <v>100</v>
-      </c>
-      <c r="BU13">
-        <v>30</v>
-      </c>
-      <c r="BV13">
-        <v>100</v>
-      </c>
-      <c r="BW13">
-        <v>100</v>
-      </c>
-      <c r="BX13">
-        <v>30</v>
-      </c>
-      <c r="BY13">
-        <v>100</v>
-      </c>
-      <c r="BZ13">
-        <v>100</v>
-      </c>
-      <c r="CA13">
-        <v>30</v>
-      </c>
-      <c r="CB13">
-        <v>100</v>
-      </c>
-      <c r="CC13">
-        <v>100</v>
-      </c>
-      <c r="CD13">
-        <v>30</v>
-      </c>
-      <c r="CE13">
-        <v>100</v>
-      </c>
-      <c r="CF13">
-        <v>100</v>
-      </c>
-      <c r="CG13">
-        <v>30</v>
-      </c>
-      <c r="CH13">
-        <v>120</v>
-      </c>
-      <c r="CI13">
-        <v>150</v>
-      </c>
-      <c r="CJ13">
-        <v>145</v>
-      </c>
-      <c r="CK13">
-        <v>120</v>
-      </c>
-      <c r="CL13">
-        <v>141</v>
-      </c>
       <c r="CM13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CN13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CO13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CP13">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="CQ13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ13" t="s">
         <v>137</v>
@@ -5368,16 +5368,16 @@
         <v>137</v>
       </c>
       <c r="DI13">
-        <v>1245</v>
+        <v>890</v>
       </c>
       <c r="DJ13" t="s">
         <v>137</v>
       </c>
       <c r="DK13">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL13">
-        <v>98.80952380952381</v>
+        <v>98.88888888888889</v>
       </c>
       <c r="DM13">
         <v>1</v>
@@ -5397,13 +5397,13 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -5424,13 +5424,13 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
         <v>21</v>
@@ -5451,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="W14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z14">
         <v>25</v>
@@ -5478,13 +5478,13 @@
         <v>7</v>
       </c>
       <c r="AF14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI14">
         <v>19</v>
@@ -5505,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="AO14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR14">
         <v>17</v>
@@ -5532,13 +5532,13 @@
         <v>7</v>
       </c>
       <c r="AX14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA14">
         <v>22</v>
@@ -5559,139 +5559,139 @@
         <v>7</v>
       </c>
       <c r="BG14">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BH14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ14">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="BK14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM14">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="BN14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BT14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV14">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="BW14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BZ14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB14">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="CC14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE14">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="CF14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH14">
-        <v>84.67</v>
+        <v>78.33</v>
       </c>
       <c r="CI14">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="CJ14">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="CK14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CL14">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="CM14">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="CN14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CO14">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="CP14">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="CQ14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ14" t="s">
         <v>137</v>
@@ -5721,16 +5721,16 @@
         <v>137</v>
       </c>
       <c r="DI14">
-        <v>1060.67</v>
+        <v>760.3299999999999</v>
       </c>
       <c r="DJ14" t="s">
         <v>137</v>
       </c>
       <c r="DK14">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL14">
-        <v>84.18015873015874</v>
+        <v>84.4811111111111</v>
       </c>
       <c r="DM14">
         <v>7</v>
@@ -5750,13 +5750,13 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -5777,13 +5777,13 @@
         <v>7</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q15">
         <v>19</v>
@@ -5804,13 +5804,13 @@
         <v>7</v>
       </c>
       <c r="W15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z15">
         <v>23</v>
@@ -5831,13 +5831,13 @@
         <v>7</v>
       </c>
       <c r="AF15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI15">
         <v>21</v>
@@ -5858,13 +5858,13 @@
         <v>7</v>
       </c>
       <c r="AO15">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AP15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR15">
         <v>16</v>
@@ -5885,13 +5885,13 @@
         <v>7</v>
       </c>
       <c r="AX15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA15">
         <v>19</v>
@@ -5912,139 +5912,139 @@
         <v>7</v>
       </c>
       <c r="BG15">
-        <v>83.33333333333333</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="BH15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ15">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="BK15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM15">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="BN15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP15">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="BQ15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS15">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="BT15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV15">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="BW15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BZ15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB15">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="CC15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE15">
-        <v>53</v>
+        <v>26.5</v>
       </c>
       <c r="CF15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH15">
-        <v>100.33</v>
+        <v>84.17</v>
       </c>
       <c r="CI15">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="CJ15">
-        <v>125.5</v>
+        <v>80.5</v>
       </c>
       <c r="CK15">
-        <v>105</v>
+        <v>82.5</v>
       </c>
       <c r="CL15">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="CM15">
-        <v>144.5</v>
+        <v>96.5</v>
       </c>
       <c r="CN15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CO15">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="CP15">
-        <v>93.5</v>
+        <v>67</v>
       </c>
       <c r="CQ15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ15" t="s">
         <v>137</v>
@@ -6074,19 +6074,19 @@
         <v>137</v>
       </c>
       <c r="DI15">
-        <v>1028.83</v>
+        <v>734.6700000000001</v>
       </c>
       <c r="DJ15" t="s">
         <v>137</v>
       </c>
       <c r="DK15">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL15">
-        <v>81.65317460317459</v>
+        <v>81.63</v>
       </c>
       <c r="DM15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:117">
@@ -6103,13 +6103,13 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -6130,13 +6130,13 @@
         <v>7</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q16">
         <v>22</v>
@@ -6157,13 +6157,13 @@
         <v>7</v>
       </c>
       <c r="W16">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z16">
         <v>9</v>
@@ -6184,13 +6184,13 @@
         <v>7</v>
       </c>
       <c r="AF16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI16">
         <v>7</v>
@@ -6211,13 +6211,13 @@
         <v>7</v>
       </c>
       <c r="AO16">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AP16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR16">
         <v>15</v>
@@ -6238,13 +6238,13 @@
         <v>7</v>
       </c>
       <c r="AX16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -6265,139 +6265,139 @@
         <v>7</v>
       </c>
       <c r="BG16">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BH16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ16">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="BK16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BN16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP16">
-        <v>56.66666666666666</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="BQ16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BT16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV16">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="BW16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY16">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BZ16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB16">
-        <v>55</v>
+        <v>27.5</v>
       </c>
       <c r="CC16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE16">
-        <v>45</v>
+        <v>22.5</v>
       </c>
       <c r="CF16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH16">
-        <v>82.67</v>
+        <v>73.33</v>
       </c>
       <c r="CI16">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="CJ16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CK16">
-        <v>68.67</v>
+        <v>58.33</v>
       </c>
       <c r="CL16">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="CM16">
-        <v>106.5</v>
+        <v>65.5</v>
       </c>
       <c r="CN16">
-        <v>79.67</v>
+        <v>65.83</v>
       </c>
       <c r="CO16">
-        <v>73</v>
+        <v>45.5</v>
       </c>
       <c r="CP16">
-        <v>61.5</v>
+        <v>39</v>
       </c>
       <c r="CQ16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ16" t="s">
         <v>137</v>
@@ -6427,16 +6427,16 @@
         <v>137</v>
       </c>
       <c r="DI16">
-        <v>723.01</v>
+        <v>511.49</v>
       </c>
       <c r="DJ16" t="s">
         <v>137</v>
       </c>
       <c r="DK16">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL16">
-        <v>57.38174603174603</v>
+        <v>56.83222222222221</v>
       </c>
       <c r="DM16">
         <v>15</v>
@@ -6456,13 +6456,13 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H17">
         <v>25</v>
@@ -6483,13 +6483,13 @@
         <v>7</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
         <v>21</v>
@@ -6510,13 +6510,13 @@
         <v>7</v>
       </c>
       <c r="W17">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z17">
         <v>24</v>
@@ -6537,13 +6537,13 @@
         <v>7</v>
       </c>
       <c r="AF17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI17">
         <v>15</v>
@@ -6564,13 +6564,13 @@
         <v>7</v>
       </c>
       <c r="AO17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AP17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR17">
         <v>20</v>
@@ -6591,13 +6591,13 @@
         <v>7</v>
       </c>
       <c r="AX17">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AY17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA17">
         <v>16.5</v>
@@ -6618,139 +6618,139 @@
         <v>7</v>
       </c>
       <c r="BG17">
-        <v>83.33333333333333</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="BH17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ17">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BK17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BL17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BM17">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="BN17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BP17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BQ17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BS17">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="BT17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BU17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BV17">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="BW17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BX17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BY17">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="BZ17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CA17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CB17">
-        <v>77</v>
+        <v>38.5</v>
       </c>
       <c r="CC17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE17">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="CF17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH17">
-        <v>102.33</v>
+        <v>89.17</v>
       </c>
       <c r="CI17">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="CJ17">
-        <v>50.5</v>
+        <v>34</v>
       </c>
       <c r="CK17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CL17">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="CM17">
-        <v>129.5</v>
+        <v>87.5</v>
       </c>
       <c r="CN17">
-        <v>84.67</v>
+        <v>78.33</v>
       </c>
       <c r="CO17">
-        <v>117.5</v>
+        <v>79</v>
       </c>
       <c r="CP17">
-        <v>79.5</v>
+        <v>48.5</v>
       </c>
       <c r="CQ17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ17" t="s">
         <v>137</v>
@@ -6780,16 +6780,16 @@
         <v>137</v>
       </c>
       <c r="DI17">
-        <v>930.9999999999999</v>
+        <v>680.5</v>
       </c>
       <c r="DJ17" t="s">
         <v>137</v>
       </c>
       <c r="DK17">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL17">
-        <v>73.88888888888889</v>
+        <v>75.6111111111111</v>
       </c>
       <c r="DM17">
         <v>11</v>
@@ -6809,13 +6809,13 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H18">
         <v>23</v>
@@ -6836,13 +6836,13 @@
         <v>7</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -6863,13 +6863,13 @@
         <v>7</v>
       </c>
       <c r="W18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z18">
         <v>17</v>
@@ -6890,13 +6890,13 @@
         <v>7</v>
       </c>
       <c r="AF18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI18">
         <v>18</v>
@@ -6917,13 +6917,13 @@
         <v>7</v>
       </c>
       <c r="AO18">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AP18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR18">
         <v>13</v>
@@ -6944,13 +6944,13 @@
         <v>7</v>
       </c>
       <c r="AX18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA18">
         <v>12.5</v>
@@ -6971,139 +6971,139 @@
         <v>7</v>
       </c>
       <c r="BG18">
-        <v>53.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="BH18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ18">
+        <v>41</v>
+      </c>
+      <c r="BK18">
+        <v>50</v>
+      </c>
+      <c r="BL18">
+        <v>15</v>
+      </c>
+      <c r="BM18">
+        <v>11</v>
+      </c>
+      <c r="BN18">
+        <v>50</v>
+      </c>
+      <c r="BO18">
+        <v>15</v>
+      </c>
+      <c r="BP18">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="BQ18">
+        <v>50</v>
+      </c>
+      <c r="BR18">
+        <v>15</v>
+      </c>
+      <c r="BS18">
+        <v>33</v>
+      </c>
+      <c r="BT18">
+        <v>50</v>
+      </c>
+      <c r="BU18">
+        <v>15</v>
+      </c>
+      <c r="BV18">
+        <v>36.5</v>
+      </c>
+      <c r="BW18">
+        <v>50</v>
+      </c>
+      <c r="BX18">
+        <v>15</v>
+      </c>
+      <c r="BY18">
+        <v>20</v>
+      </c>
+      <c r="BZ18">
+        <v>50</v>
+      </c>
+      <c r="CA18">
+        <v>15</v>
+      </c>
+      <c r="CB18">
+        <v>31</v>
+      </c>
+      <c r="CC18">
+        <v>50</v>
+      </c>
+      <c r="CD18">
+        <v>15</v>
+      </c>
+      <c r="CE18">
+        <v>19.5</v>
+      </c>
+      <c r="CF18">
+        <v>50</v>
+      </c>
+      <c r="CG18">
+        <v>15</v>
+      </c>
+      <c r="CH18">
+        <v>64.17</v>
+      </c>
+      <c r="CI18">
         <v>82</v>
       </c>
-      <c r="BK18">
-        <v>100</v>
-      </c>
-      <c r="BL18">
-        <v>30</v>
-      </c>
-      <c r="BM18">
-        <v>22</v>
-      </c>
-      <c r="BN18">
-        <v>100</v>
-      </c>
-      <c r="BO18">
-        <v>30</v>
-      </c>
-      <c r="BP18">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="BQ18">
-        <v>100</v>
-      </c>
-      <c r="BR18">
-        <v>30</v>
-      </c>
-      <c r="BS18">
-        <v>66</v>
-      </c>
-      <c r="BT18">
-        <v>100</v>
-      </c>
-      <c r="BU18">
-        <v>30</v>
-      </c>
-      <c r="BV18">
-        <v>73</v>
-      </c>
-      <c r="BW18">
-        <v>100</v>
-      </c>
-      <c r="BX18">
-        <v>30</v>
-      </c>
-      <c r="BY18">
-        <v>40</v>
-      </c>
-      <c r="BZ18">
-        <v>100</v>
-      </c>
-      <c r="CA18">
-        <v>30</v>
-      </c>
-      <c r="CB18">
-        <v>62</v>
-      </c>
-      <c r="CC18">
-        <v>100</v>
-      </c>
-      <c r="CD18">
-        <v>30</v>
-      </c>
-      <c r="CE18">
-        <v>39</v>
-      </c>
-      <c r="CF18">
-        <v>100</v>
-      </c>
-      <c r="CG18">
-        <v>30</v>
-      </c>
-      <c r="CH18">
-        <v>68.33</v>
-      </c>
-      <c r="CI18">
-        <v>123</v>
-      </c>
       <c r="CJ18">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="CK18">
-        <v>107.33</v>
+        <v>81.67</v>
       </c>
       <c r="CL18">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="CM18">
-        <v>110.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="CN18">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="CO18">
-        <v>91.5</v>
+        <v>60.5</v>
       </c>
       <c r="CP18">
-        <v>46</v>
+        <v>26.5</v>
       </c>
       <c r="CQ18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ18" t="s">
         <v>137</v>
@@ -7130,19 +7130,19 @@
         <v>137</v>
       </c>
       <c r="DH18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="DI18">
-        <v>728.5599999999999</v>
+        <v>533.74</v>
       </c>
       <c r="DJ18" t="s">
         <v>137</v>
       </c>
       <c r="DK18">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL18">
-        <v>57.82222222222222</v>
+        <v>59.30444444444445</v>
       </c>
       <c r="DM18">
         <v>14</v>
@@ -7162,13 +7162,13 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -7189,13 +7189,13 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
         <v>22</v>
@@ -7216,13 +7216,13 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="X19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z19">
         <v>23</v>
@@ -7246,10 +7246,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AI19">
         <v>15</v>
@@ -7273,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AR19">
         <v>19</v>
@@ -7297,13 +7297,13 @@
         <v>7</v>
       </c>
       <c r="AX19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AZ19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="BA19">
         <v>20</v>
@@ -7324,139 +7324,139 @@
         <v>7</v>
       </c>
       <c r="BG19">
-        <v>53.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="BH19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BJ19">
+        <v>24</v>
+      </c>
+      <c r="BK19">
+        <v>50</v>
+      </c>
+      <c r="BL19">
+        <v>15</v>
+      </c>
+      <c r="BM19">
+        <v>30.5</v>
+      </c>
+      <c r="BN19">
+        <v>50</v>
+      </c>
+      <c r="BO19">
+        <v>15</v>
+      </c>
+      <c r="BP19">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="BQ19">
+        <v>50</v>
+      </c>
+      <c r="BR19">
+        <v>15</v>
+      </c>
+      <c r="BS19">
+        <v>37</v>
+      </c>
+      <c r="BT19">
+        <v>50</v>
+      </c>
+      <c r="BU19">
+        <v>15</v>
+      </c>
+      <c r="BV19">
+        <v>43.5</v>
+      </c>
+      <c r="BW19">
+        <v>50</v>
+      </c>
+      <c r="BX19">
+        <v>15</v>
+      </c>
+      <c r="BY19">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="BZ19">
+        <v>50</v>
+      </c>
+      <c r="CA19">
+        <v>15</v>
+      </c>
+      <c r="CB19">
         <v>48</v>
       </c>
-      <c r="BK19">
-        <v>100</v>
-      </c>
-      <c r="BL19">
-        <v>30</v>
-      </c>
-      <c r="BM19">
-        <v>61</v>
-      </c>
-      <c r="BN19">
-        <v>100</v>
-      </c>
-      <c r="BO19">
-        <v>30</v>
-      </c>
-      <c r="BP19">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="BQ19">
-        <v>100</v>
-      </c>
-      <c r="BR19">
-        <v>30</v>
-      </c>
-      <c r="BS19">
-        <v>74</v>
-      </c>
-      <c r="BT19">
-        <v>100</v>
-      </c>
-      <c r="BU19">
-        <v>30</v>
-      </c>
-      <c r="BV19">
-        <v>87</v>
-      </c>
-      <c r="BW19">
-        <v>100</v>
-      </c>
-      <c r="BX19">
-        <v>30</v>
-      </c>
-      <c r="BY19">
-        <v>56.66666666666666</v>
-      </c>
-      <c r="BZ19">
-        <v>100</v>
-      </c>
-      <c r="CA19">
-        <v>30</v>
-      </c>
-      <c r="CB19">
-        <v>96</v>
-      </c>
       <c r="CC19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CD19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CE19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="CF19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CG19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="CH19">
-        <v>57.33</v>
+        <v>36.67</v>
       </c>
       <c r="CI19">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="CJ19">
-        <v>83.5</v>
+        <v>53</v>
       </c>
       <c r="CK19">
-        <v>92.33</v>
+        <v>64.17</v>
       </c>
       <c r="CL19">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="CM19">
-        <v>130</v>
+        <v>86.5</v>
       </c>
       <c r="CN19">
-        <v>70.67</v>
+        <v>63.33</v>
       </c>
       <c r="CO19">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="CP19">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="CQ19">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CR19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CS19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CT19">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CU19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CV19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CW19">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="CX19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CY19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="CZ19" t="s">
         <v>137</v>
@@ -7486,16 +7486,16 @@
         <v>137</v>
       </c>
       <c r="DI19">
-        <v>821.8299999999999</v>
+        <v>557.6700000000001</v>
       </c>
       <c r="DJ19" t="s">
         <v>137</v>
       </c>
       <c r="DK19">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="DL19">
-        <v>65.22460317460317</v>
+        <v>61.96333333333334</v>
       </c>
       <c r="DM19">
         <v>12</v>

--- a/UKG/Result_Final.xlsx
+++ b/UKG/Result_Final.xlsx
@@ -1161,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1188,13 +1188,13 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <v>24</v>
@@ -1242,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI2">
         <v>20</v>
@@ -1269,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR2">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="AX2">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AY2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>7</v>
       </c>
       <c r="BG2">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="BH2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ2">
         <v>43</v>
@@ -1350,13 +1350,13 @@
         <v>15</v>
       </c>
       <c r="BP2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS2">
         <v>36</v>
@@ -1377,13 +1377,13 @@
         <v>15</v>
       </c>
       <c r="BY2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BZ2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB2">
         <v>49</v>
@@ -1404,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="CH2">
-        <v>91.67</v>
+        <v>46</v>
       </c>
       <c r="CI2">
         <v>63</v>
@@ -1413,7 +1413,7 @@
         <v>82.5</v>
       </c>
       <c r="CK2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CL2">
         <v>52</v>
@@ -1422,7 +1422,7 @@
         <v>95.5</v>
       </c>
       <c r="CN2">
-        <v>72.5</v>
+        <v>39</v>
       </c>
       <c r="CO2">
         <v>73</v>
@@ -1431,7 +1431,7 @@
         <v>80</v>
       </c>
       <c r="CQ2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR2">
         <v>100</v>
@@ -1440,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="CT2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU2">
         <v>100</v>
@@ -1449,7 +1449,7 @@
         <v>100</v>
       </c>
       <c r="CW2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX2">
         <v>100</v>
@@ -1485,16 +1485,16 @@
         <v>137</v>
       </c>
       <c r="DI2">
-        <v>710.1700000000001</v>
+        <v>581</v>
       </c>
       <c r="DJ2" t="s">
         <v>137</v>
       </c>
       <c r="DK2">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL2">
-        <v>78.90777777777778</v>
+        <v>77.46666666666667</v>
       </c>
       <c r="DM2">
         <v>10</v>
@@ -1514,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1541,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>24</v>
@@ -1568,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z3">
         <v>25</v>
@@ -1595,13 +1595,13 @@
         <v>7</v>
       </c>
       <c r="AF3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI3">
         <v>25</v>
@@ -1622,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR3">
         <v>24</v>
@@ -1649,13 +1649,13 @@
         <v>7</v>
       </c>
       <c r="AX3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA3">
         <v>25</v>
@@ -1676,13 +1676,13 @@
         <v>7</v>
       </c>
       <c r="BG3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ3">
         <v>46</v>
@@ -1703,13 +1703,13 @@
         <v>15</v>
       </c>
       <c r="BP3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS3">
         <v>47</v>
@@ -1730,13 +1730,13 @@
         <v>15</v>
       </c>
       <c r="BY3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="BZ3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB3">
         <v>49</v>
@@ -1757,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="CH3">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CI3">
         <v>96</v>
@@ -1766,7 +1766,7 @@
         <v>96</v>
       </c>
       <c r="CK3">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CL3">
         <v>95</v>
@@ -1775,7 +1775,7 @@
         <v>99.5</v>
       </c>
       <c r="CN3">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="CO3">
         <v>99</v>
@@ -1784,7 +1784,7 @@
         <v>96</v>
       </c>
       <c r="CQ3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR3">
         <v>100</v>
@@ -1793,7 +1793,7 @@
         <v>100</v>
       </c>
       <c r="CT3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU3">
         <v>100</v>
@@ -1802,7 +1802,7 @@
         <v>100</v>
       </c>
       <c r="CW3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX3">
         <v>100</v>
@@ -1838,16 +1838,16 @@
         <v>137</v>
       </c>
       <c r="DI3">
-        <v>866.5</v>
+        <v>723.5</v>
       </c>
       <c r="DJ3" t="s">
         <v>137</v>
       </c>
       <c r="DK3">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL3">
-        <v>96.27777777777777</v>
+        <v>96.46666666666667</v>
       </c>
       <c r="DM3">
         <v>2</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1894,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1921,13 +1921,13 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>9</v>
@@ -1948,13 +1948,13 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AG4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI4">
         <v>5</v>
@@ -1975,13 +1975,13 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AP4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR4">
         <v>8</v>
@@ -2002,13 +2002,13 @@
         <v>7</v>
       </c>
       <c r="AX4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2029,13 +2029,13 @@
         <v>7</v>
       </c>
       <c r="BG4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BH4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ4">
         <v>15</v>
@@ -2056,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="BP4">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BQ4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS4">
         <v>16</v>
@@ -2083,13 +2083,13 @@
         <v>15</v>
       </c>
       <c r="BY4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BZ4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB4">
         <v>15</v>
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="CH4">
-        <v>42.5</v>
+        <v>22</v>
       </c>
       <c r="CI4">
         <v>26</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>76.67</v>
+        <v>39</v>
       </c>
       <c r="CL4">
         <v>32</v>
@@ -2128,7 +2128,7 @@
         <v>15.2</v>
       </c>
       <c r="CN4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="CO4">
         <v>30</v>
@@ -2137,7 +2137,7 @@
         <v>7.5</v>
       </c>
       <c r="CQ4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR4">
         <v>100</v>
@@ -2146,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="CT4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU4">
         <v>100</v>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="CW4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX4">
         <v>100</v>
@@ -2191,16 +2191,16 @@
         <v>138</v>
       </c>
       <c r="DI4">
-        <v>279.87</v>
+        <v>195.7</v>
       </c>
       <c r="DJ4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="DK4">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL4">
-        <v>31.09666666666667</v>
+        <v>26.09333333333333</v>
       </c>
       <c r="DM4">
         <v>18</v>
@@ -2220,13 +2220,13 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>25</v>
@@ -2247,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>19</v>
@@ -2274,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>24</v>
@@ -2301,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI5">
         <v>23</v>
@@ -2328,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AP5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR5">
         <v>15</v>
@@ -2355,13 +2355,13 @@
         <v>7</v>
       </c>
       <c r="AX5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA5">
         <v>21</v>
@@ -2382,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="BG5">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="BH5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ5">
         <v>48</v>
@@ -2409,13 +2409,13 @@
         <v>15</v>
       </c>
       <c r="BP5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS5">
         <v>35</v>
@@ -2436,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="BY5">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BZ5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB5">
         <v>49</v>
@@ -2463,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="CH5">
-        <v>94.17</v>
+        <v>47</v>
       </c>
       <c r="CI5">
         <v>96</v>
@@ -2472,7 +2472,7 @@
         <v>80.5</v>
       </c>
       <c r="CK5">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CL5">
         <v>69</v>
@@ -2481,7 +2481,7 @@
         <v>92</v>
       </c>
       <c r="CN5">
-        <v>91.67</v>
+        <v>45</v>
       </c>
       <c r="CO5">
         <v>94</v>
@@ -2490,7 +2490,7 @@
         <v>74</v>
       </c>
       <c r="CQ5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR5">
         <v>100</v>
@@ -2499,7 +2499,7 @@
         <v>100</v>
       </c>
       <c r="CT5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU5">
         <v>100</v>
@@ -2508,7 +2508,7 @@
         <v>100</v>
       </c>
       <c r="CW5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX5">
         <v>100</v>
@@ -2544,16 +2544,16 @@
         <v>137</v>
       </c>
       <c r="DI5">
-        <v>788.84</v>
+        <v>646.5</v>
       </c>
       <c r="DJ5" t="s">
         <v>137</v>
       </c>
       <c r="DK5">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL5">
-        <v>87.64888888888889</v>
+        <v>86.2</v>
       </c>
       <c r="DM5">
         <v>5</v>
@@ -2573,13 +2573,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2600,13 +2600,13 @@
         <v>7</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -2627,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="X6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>12</v>
@@ -2654,13 +2654,13 @@
         <v>7</v>
       </c>
       <c r="AF6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AG6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AP6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2708,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="AX6">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AY6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>7</v>
       </c>
       <c r="BG6">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BH6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ6">
         <v>33</v>
@@ -2762,13 +2762,13 @@
         <v>15</v>
       </c>
       <c r="BP6">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BQ6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS6">
         <v>35</v>
@@ -2789,13 +2789,13 @@
         <v>15</v>
       </c>
       <c r="BY6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BZ6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB6">
         <v>36</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="CH6">
-        <v>81.67</v>
+        <v>41</v>
       </c>
       <c r="CI6">
         <v>46</v>
@@ -2825,7 +2825,7 @@
         <v>31.5</v>
       </c>
       <c r="CK6">
-        <v>81.67</v>
+        <v>41</v>
       </c>
       <c r="CL6">
         <v>49</v>
@@ -2834,7 +2834,7 @@
         <v>87</v>
       </c>
       <c r="CN6">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="CO6">
         <v>48</v>
@@ -2843,7 +2843,7 @@
         <v>67.5</v>
       </c>
       <c r="CQ6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR6">
         <v>100</v>
@@ -2852,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="CT6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU6">
         <v>100</v>
@@ -2861,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="CW6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX6">
         <v>100</v>
@@ -2897,16 +2897,16 @@
         <v>137</v>
       </c>
       <c r="DI6">
-        <v>557.34</v>
+        <v>443</v>
       </c>
       <c r="DJ6" t="s">
         <v>137</v>
       </c>
       <c r="DK6">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL6">
-        <v>61.92666666666668</v>
+        <v>59.06666666666667</v>
       </c>
       <c r="DM6">
         <v>13</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>13</v>
@@ -2953,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2980,13 +2980,13 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="X7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>18</v>
@@ -3007,13 +3007,13 @@
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AG7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI7">
         <v>18</v>
@@ -3034,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="AO7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AP7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR7">
         <v>10</v>
@@ -3061,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="AX7">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AY7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA7">
         <v>11</v>
@@ -3088,13 +3088,13 @@
         <v>7</v>
       </c>
       <c r="BG7">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="BH7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ7">
         <v>41</v>
@@ -3115,13 +3115,13 @@
         <v>15</v>
       </c>
       <c r="BP7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BQ7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS7">
         <v>23</v>
@@ -3142,13 +3142,13 @@
         <v>15</v>
       </c>
       <c r="BY7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BZ7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB7">
         <v>25</v>
@@ -3169,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="CH7">
-        <v>31.67</v>
+        <v>16</v>
       </c>
       <c r="CI7">
         <v>72</v>
@@ -3178,7 +3178,7 @@
         <v>20.5</v>
       </c>
       <c r="CK7">
-        <v>52.5</v>
+        <v>26</v>
       </c>
       <c r="CL7">
         <v>41</v>
@@ -3187,7 +3187,7 @@
         <v>67</v>
       </c>
       <c r="CN7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="CO7">
         <v>54</v>
@@ -3196,7 +3196,7 @@
         <v>23.5</v>
       </c>
       <c r="CQ7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR7">
         <v>100</v>
@@ -3205,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="CT7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU7">
         <v>100</v>
@@ -3214,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="CW7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX7">
         <v>100</v>
@@ -3250,16 +3250,16 @@
         <v>138</v>
       </c>
       <c r="DI7">
-        <v>422.17</v>
+        <v>350</v>
       </c>
       <c r="DJ7" t="s">
         <v>137</v>
       </c>
       <c r="DK7">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL7">
-        <v>46.90777777777778</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="DM7">
         <v>17</v>
@@ -3279,13 +3279,13 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -3306,13 +3306,13 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>22</v>
@@ -3333,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>23</v>
@@ -3360,13 +3360,13 @@
         <v>7</v>
       </c>
       <c r="AF8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>23</v>
@@ -3387,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="AO8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR8">
         <v>15</v>
@@ -3414,13 +3414,13 @@
         <v>7</v>
       </c>
       <c r="AX8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA8">
         <v>19</v>
@@ -3441,13 +3441,13 @@
         <v>7</v>
       </c>
       <c r="BG8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ8">
         <v>49</v>
@@ -3468,13 +3468,13 @@
         <v>15</v>
       </c>
       <c r="BP8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS8">
         <v>40</v>
@@ -3495,13 +3495,13 @@
         <v>15</v>
       </c>
       <c r="BY8">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BZ8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB8">
         <v>43</v>
@@ -3522,7 +3522,7 @@
         <v>15</v>
       </c>
       <c r="CH8">
-        <v>92.5</v>
+        <v>47</v>
       </c>
       <c r="CI8">
         <v>90</v>
@@ -3531,7 +3531,7 @@
         <v>47.5</v>
       </c>
       <c r="CK8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CL8">
         <v>77</v>
@@ -3540,7 +3540,7 @@
         <v>91.5</v>
       </c>
       <c r="CN8">
-        <v>76.67</v>
+        <v>38</v>
       </c>
       <c r="CO8">
         <v>85</v>
@@ -3549,7 +3549,7 @@
         <v>64.5</v>
       </c>
       <c r="CQ8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR8">
         <v>100</v>
@@ -3558,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="CT8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU8">
         <v>100</v>
@@ -3567,7 +3567,7 @@
         <v>100</v>
       </c>
       <c r="CW8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX8">
         <v>100</v>
@@ -3603,16 +3603,16 @@
         <v>137</v>
       </c>
       <c r="DI8">
-        <v>724.67</v>
+        <v>590.5</v>
       </c>
       <c r="DJ8" t="s">
         <v>137</v>
       </c>
       <c r="DK8">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL8">
-        <v>80.51888888888888</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="DM8">
         <v>9</v>
@@ -3632,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -3659,13 +3659,13 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -3686,13 +3686,13 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>24</v>
@@ -3713,13 +3713,13 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI9">
         <v>25</v>
@@ -3740,13 +3740,13 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AP9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR9">
         <v>20</v>
@@ -3767,13 +3767,13 @@
         <v>7</v>
       </c>
       <c r="AX9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA9">
         <v>24</v>
@@ -3794,13 +3794,13 @@
         <v>7</v>
       </c>
       <c r="BG9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ9">
         <v>50</v>
@@ -3821,13 +3821,13 @@
         <v>15</v>
       </c>
       <c r="BP9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS9">
         <v>46</v>
@@ -3848,13 +3848,13 @@
         <v>15</v>
       </c>
       <c r="BY9">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="BZ9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB9">
         <v>49</v>
@@ -3875,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="CH9">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CI9">
         <v>100</v>
@@ -3884,7 +3884,7 @@
         <v>79.5</v>
       </c>
       <c r="CK9">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CL9">
         <v>89</v>
@@ -3893,7 +3893,7 @@
         <v>98</v>
       </c>
       <c r="CN9">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="CO9">
         <v>97</v>
@@ -3902,7 +3902,7 @@
         <v>91.5</v>
       </c>
       <c r="CQ9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR9">
         <v>100</v>
@@ -3911,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="CT9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU9">
         <v>100</v>
@@ -3920,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="CW9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX9">
         <v>100</v>
@@ -3956,16 +3956,16 @@
         <v>137</v>
       </c>
       <c r="DI9">
-        <v>846.67</v>
+        <v>701</v>
       </c>
       <c r="DJ9" t="s">
         <v>137</v>
       </c>
       <c r="DK9">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL9">
-        <v>94.07444444444444</v>
+        <v>93.46666666666667</v>
       </c>
       <c r="DM9">
         <v>3</v>
@@ -3985,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>25</v>
@@ -4012,13 +4012,13 @@
         <v>7</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>23</v>
@@ -4039,13 +4039,13 @@
         <v>7</v>
       </c>
       <c r="W10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z10">
         <v>22</v>
@@ -4066,13 +4066,13 @@
         <v>7</v>
       </c>
       <c r="AF10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI10">
         <v>25</v>
@@ -4093,13 +4093,13 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AP10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR10">
         <v>20</v>
@@ -4120,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="AX10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA10">
         <v>25</v>
@@ -4147,13 +4147,13 @@
         <v>7</v>
       </c>
       <c r="BG10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ10">
         <v>50</v>
@@ -4174,13 +4174,13 @@
         <v>15</v>
       </c>
       <c r="BP10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS10">
         <v>43</v>
@@ -4201,13 +4201,13 @@
         <v>15</v>
       </c>
       <c r="BY10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BZ10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB10">
         <v>50</v>
@@ -4228,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="CH10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CI10">
         <v>100</v>
@@ -4237,7 +4237,7 @@
         <v>84</v>
       </c>
       <c r="CK10">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="CL10">
         <v>86</v>
@@ -4246,7 +4246,7 @@
         <v>97.5</v>
       </c>
       <c r="CN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CO10">
         <v>97</v>
@@ -4255,7 +4255,7 @@
         <v>78.5</v>
       </c>
       <c r="CQ10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR10">
         <v>100</v>
@@ -4264,7 +4264,7 @@
         <v>100</v>
       </c>
       <c r="CT10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU10">
         <v>100</v>
@@ -4273,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="CW10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX10">
         <v>100</v>
@@ -4309,16 +4309,16 @@
         <v>137</v>
       </c>
       <c r="DI10">
-        <v>840.5</v>
+        <v>692</v>
       </c>
       <c r="DJ10" t="s">
         <v>137</v>
       </c>
       <c r="DK10">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL10">
-        <v>93.38888888888889</v>
+        <v>92.26666666666667</v>
       </c>
       <c r="DM10">
         <v>4</v>
@@ -4338,13 +4338,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -4365,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="N11">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>13</v>
@@ -4392,13 +4392,13 @@
         <v>7</v>
       </c>
       <c r="W11">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="X11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>17</v>
@@ -4419,13 +4419,13 @@
         <v>7</v>
       </c>
       <c r="AF11">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AG11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI11">
         <v>21</v>
@@ -4446,13 +4446,13 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AP11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR11">
         <v>14</v>
@@ -4473,13 +4473,13 @@
         <v>7</v>
       </c>
       <c r="AX11">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AY11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA11">
         <v>18</v>
@@ -4500,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="BG11">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BH11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ11">
         <v>41</v>
@@ -4527,13 +4527,13 @@
         <v>15</v>
       </c>
       <c r="BP11">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BQ11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS11">
         <v>32</v>
@@ -4554,13 +4554,13 @@
         <v>15</v>
       </c>
       <c r="BY11">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BZ11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB11">
         <v>24</v>
@@ -4581,7 +4581,7 @@
         <v>15</v>
       </c>
       <c r="CH11">
-        <v>63.33</v>
+        <v>32</v>
       </c>
       <c r="CI11">
         <v>67</v>
@@ -4590,7 +4590,7 @@
         <v>12.5</v>
       </c>
       <c r="CK11">
-        <v>66.67</v>
+        <v>34</v>
       </c>
       <c r="CL11">
         <v>59</v>
@@ -4599,7 +4599,7 @@
         <v>64.5</v>
       </c>
       <c r="CN11">
-        <v>68.33</v>
+        <v>34</v>
       </c>
       <c r="CO11">
         <v>59</v>
@@ -4608,7 +4608,7 @@
         <v>37.5</v>
       </c>
       <c r="CQ11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR11">
         <v>100</v>
@@ -4617,7 +4617,7 @@
         <v>100</v>
       </c>
       <c r="CT11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU11">
         <v>100</v>
@@ -4626,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="CW11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX11">
         <v>100</v>
@@ -4662,16 +4662,16 @@
         <v>137</v>
       </c>
       <c r="DI11">
-        <v>497.83</v>
+        <v>399.5</v>
       </c>
       <c r="DJ11" t="s">
         <v>137</v>
       </c>
       <c r="DK11">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL11">
-        <v>55.31444444444445</v>
+        <v>53.26666666666667</v>
       </c>
       <c r="DM11">
         <v>16</v>
@@ -4691,13 +4691,13 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>21</v>
@@ -4718,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="N12">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>22</v>
@@ -4745,13 +4745,13 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z12">
         <v>25</v>
@@ -4772,13 +4772,13 @@
         <v>7</v>
       </c>
       <c r="AF12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI12">
         <v>19</v>
@@ -4799,13 +4799,13 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR12">
         <v>17</v>
@@ -4826,13 +4826,13 @@
         <v>7</v>
       </c>
       <c r="AX12">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AY12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA12">
         <v>24</v>
@@ -4853,13 +4853,13 @@
         <v>7</v>
       </c>
       <c r="BG12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ12">
         <v>40</v>
@@ -4880,13 +4880,13 @@
         <v>15</v>
       </c>
       <c r="BP12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="BQ12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS12">
         <v>38</v>
@@ -4907,13 +4907,13 @@
         <v>15</v>
       </c>
       <c r="BY12">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="BZ12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB12">
         <v>49</v>
@@ -4934,7 +4934,7 @@
         <v>15</v>
       </c>
       <c r="CH12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CI12">
         <v>80</v>
@@ -4943,7 +4943,7 @@
         <v>68.5</v>
       </c>
       <c r="CK12">
-        <v>92.5</v>
+        <v>46</v>
       </c>
       <c r="CL12">
         <v>77</v>
@@ -4952,7 +4952,7 @@
         <v>97</v>
       </c>
       <c r="CN12">
-        <v>90.83</v>
+        <v>45</v>
       </c>
       <c r="CO12">
         <v>98</v>
@@ -4961,7 +4961,7 @@
         <v>65.5</v>
       </c>
       <c r="CQ12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR12">
         <v>100</v>
@@ -4970,7 +4970,7 @@
         <v>100</v>
       </c>
       <c r="CT12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU12">
         <v>100</v>
@@ -4979,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="CW12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX12">
         <v>100</v>
@@ -5015,16 +5015,16 @@
         <v>137</v>
       </c>
       <c r="DI12">
-        <v>769.33</v>
+        <v>627</v>
       </c>
       <c r="DJ12" t="s">
         <v>137</v>
       </c>
       <c r="DK12">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL12">
-        <v>85.48111111111112</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="DM12">
         <v>6</v>
@@ -5044,13 +5044,13 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>25</v>
@@ -5071,13 +5071,13 @@
         <v>7</v>
       </c>
       <c r="N13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>24</v>
@@ -5098,13 +5098,13 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z13">
         <v>25</v>
@@ -5125,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="AF13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI13">
         <v>25</v>
@@ -5152,13 +5152,13 @@
         <v>7</v>
       </c>
       <c r="AO13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR13">
         <v>23</v>
@@ -5179,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="AX13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA13">
         <v>25</v>
@@ -5206,13 +5206,13 @@
         <v>7</v>
       </c>
       <c r="BG13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BH13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ13">
         <v>50</v>
@@ -5233,13 +5233,13 @@
         <v>15</v>
       </c>
       <c r="BP13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS13">
         <v>47</v>
@@ -5260,13 +5260,13 @@
         <v>15</v>
       </c>
       <c r="BY13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BZ13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB13">
         <v>50</v>
@@ -5287,7 +5287,7 @@
         <v>15</v>
       </c>
       <c r="CH13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CI13">
         <v>100</v>
@@ -5296,7 +5296,7 @@
         <v>97</v>
       </c>
       <c r="CK13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CL13">
         <v>94</v>
@@ -5305,7 +5305,7 @@
         <v>100</v>
       </c>
       <c r="CN13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CO13">
         <v>100</v>
@@ -5314,7 +5314,7 @@
         <v>99</v>
       </c>
       <c r="CQ13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR13">
         <v>100</v>
@@ -5323,7 +5323,7 @@
         <v>100</v>
       </c>
       <c r="CT13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU13">
         <v>100</v>
@@ -5332,7 +5332,7 @@
         <v>100</v>
       </c>
       <c r="CW13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX13">
         <v>100</v>
@@ -5368,16 +5368,16 @@
         <v>137</v>
       </c>
       <c r="DI13">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="DJ13" t="s">
         <v>137</v>
       </c>
       <c r="DK13">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL13">
-        <v>98.88888888888889</v>
+        <v>98.66666666666667</v>
       </c>
       <c r="DM13">
         <v>1</v>
@@ -5397,13 +5397,13 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -5424,13 +5424,13 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q14">
         <v>21</v>
@@ -5451,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="W14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z14">
         <v>25</v>
@@ -5478,13 +5478,13 @@
         <v>7</v>
       </c>
       <c r="AF14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI14">
         <v>19</v>
@@ -5505,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="AO14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR14">
         <v>17</v>
@@ -5532,13 +5532,13 @@
         <v>7</v>
       </c>
       <c r="AX14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA14">
         <v>22</v>
@@ -5559,13 +5559,13 @@
         <v>7</v>
       </c>
       <c r="BG14">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BH14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ14">
         <v>41</v>
@@ -5586,13 +5586,13 @@
         <v>15</v>
       </c>
       <c r="BP14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS14">
         <v>40</v>
@@ -5613,13 +5613,13 @@
         <v>15</v>
       </c>
       <c r="BY14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BZ14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB14">
         <v>46</v>
@@ -5640,7 +5640,7 @@
         <v>15</v>
       </c>
       <c r="CH14">
-        <v>78.33</v>
+        <v>38</v>
       </c>
       <c r="CI14">
         <v>75</v>
@@ -5649,7 +5649,7 @@
         <v>73</v>
       </c>
       <c r="CK14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CL14">
         <v>78</v>
@@ -5658,7 +5658,7 @@
         <v>88</v>
       </c>
       <c r="CN14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CO14">
         <v>93</v>
@@ -5667,7 +5667,7 @@
         <v>75</v>
       </c>
       <c r="CQ14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR14">
         <v>100</v>
@@ -5676,7 +5676,7 @@
         <v>100</v>
       </c>
       <c r="CT14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU14">
         <v>100</v>
@@ -5685,7 +5685,7 @@
         <v>100</v>
       </c>
       <c r="CW14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX14">
         <v>100</v>
@@ -5721,16 +5721,16 @@
         <v>137</v>
       </c>
       <c r="DI14">
-        <v>760.3299999999999</v>
+        <v>620</v>
       </c>
       <c r="DJ14" t="s">
         <v>137</v>
       </c>
       <c r="DK14">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL14">
-        <v>84.4811111111111</v>
+        <v>82.66666666666667</v>
       </c>
       <c r="DM14">
         <v>7</v>
@@ -5750,13 +5750,13 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -5777,13 +5777,13 @@
         <v>7</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
         <v>19</v>
@@ -5804,13 +5804,13 @@
         <v>7</v>
       </c>
       <c r="W15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z15">
         <v>23</v>
@@ -5831,13 +5831,13 @@
         <v>7</v>
       </c>
       <c r="AF15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI15">
         <v>21</v>
@@ -5858,13 +5858,13 @@
         <v>7</v>
       </c>
       <c r="AO15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AP15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR15">
         <v>16</v>
@@ -5885,13 +5885,13 @@
         <v>7</v>
       </c>
       <c r="AX15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA15">
         <v>19</v>
@@ -5912,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="BG15">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BH15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ15">
         <v>41</v>
@@ -5939,13 +5939,13 @@
         <v>15</v>
       </c>
       <c r="BP15">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="BQ15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS15">
         <v>38</v>
@@ -5966,13 +5966,13 @@
         <v>15</v>
       </c>
       <c r="BY15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BZ15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB15">
         <v>37</v>
@@ -5993,7 +5993,7 @@
         <v>15</v>
       </c>
       <c r="CH15">
-        <v>84.17</v>
+        <v>42</v>
       </c>
       <c r="CI15">
         <v>72</v>
@@ -6002,7 +6002,7 @@
         <v>80.5</v>
       </c>
       <c r="CK15">
-        <v>82.5</v>
+        <v>42</v>
       </c>
       <c r="CL15">
         <v>73</v>
@@ -6011,7 +6011,7 @@
         <v>96.5</v>
       </c>
       <c r="CN15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CO15">
         <v>79</v>
@@ -6020,7 +6020,7 @@
         <v>67</v>
       </c>
       <c r="CQ15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR15">
         <v>100</v>
@@ -6029,7 +6029,7 @@
         <v>100</v>
       </c>
       <c r="CT15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU15">
         <v>100</v>
@@ -6038,7 +6038,7 @@
         <v>100</v>
       </c>
       <c r="CW15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX15">
         <v>100</v>
@@ -6074,16 +6074,16 @@
         <v>137</v>
       </c>
       <c r="DI15">
-        <v>734.6700000000001</v>
+        <v>602</v>
       </c>
       <c r="DJ15" t="s">
         <v>137</v>
       </c>
       <c r="DK15">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL15">
-        <v>81.63</v>
+        <v>80.26666666666667</v>
       </c>
       <c r="DM15">
         <v>8</v>
@@ -6103,13 +6103,13 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -6130,13 +6130,13 @@
         <v>7</v>
       </c>
       <c r="N16">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="O16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>22</v>
@@ -6157,13 +6157,13 @@
         <v>7</v>
       </c>
       <c r="W16">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="X16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z16">
         <v>9</v>
@@ -6184,13 +6184,13 @@
         <v>7</v>
       </c>
       <c r="AF16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI16">
         <v>7</v>
@@ -6211,13 +6211,13 @@
         <v>7</v>
       </c>
       <c r="AO16">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AP16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR16">
         <v>15</v>
@@ -6238,13 +6238,13 @@
         <v>7</v>
       </c>
       <c r="AX16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -6265,13 +6265,13 @@
         <v>7</v>
       </c>
       <c r="BG16">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BH16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ16">
         <v>45</v>
@@ -6292,13 +6292,13 @@
         <v>15</v>
       </c>
       <c r="BP16">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="BQ16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS16">
         <v>40</v>
@@ -6319,13 +6319,13 @@
         <v>15</v>
       </c>
       <c r="BY16">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BZ16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB16">
         <v>27.5</v>
@@ -6346,7 +6346,7 @@
         <v>15</v>
       </c>
       <c r="CH16">
-        <v>73.33</v>
+        <v>36</v>
       </c>
       <c r="CI16">
         <v>67</v>
@@ -6355,7 +6355,7 @@
         <v>20</v>
       </c>
       <c r="CK16">
-        <v>58.33</v>
+        <v>29</v>
       </c>
       <c r="CL16">
         <v>77</v>
@@ -6364,7 +6364,7 @@
         <v>65.5</v>
       </c>
       <c r="CN16">
-        <v>65.83</v>
+        <v>33</v>
       </c>
       <c r="CO16">
         <v>45.5</v>
@@ -6373,7 +6373,7 @@
         <v>39</v>
       </c>
       <c r="CQ16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR16">
         <v>100</v>
@@ -6382,7 +6382,7 @@
         <v>100</v>
       </c>
       <c r="CT16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU16">
         <v>100</v>
@@ -6391,7 +6391,7 @@
         <v>100</v>
       </c>
       <c r="CW16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX16">
         <v>100</v>
@@ -6427,16 +6427,16 @@
         <v>137</v>
       </c>
       <c r="DI16">
-        <v>511.49</v>
+        <v>412</v>
       </c>
       <c r="DJ16" t="s">
         <v>137</v>
       </c>
       <c r="DK16">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL16">
-        <v>56.83222222222221</v>
+        <v>54.93333333333334</v>
       </c>
       <c r="DM16">
         <v>15</v>
@@ -6456,13 +6456,13 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>25</v>
@@ -6483,13 +6483,13 @@
         <v>7</v>
       </c>
       <c r="N17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>21</v>
@@ -6510,13 +6510,13 @@
         <v>7</v>
       </c>
       <c r="W17">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="X17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z17">
         <v>24</v>
@@ -6537,13 +6537,13 @@
         <v>7</v>
       </c>
       <c r="AF17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI17">
         <v>15</v>
@@ -6564,13 +6564,13 @@
         <v>7</v>
       </c>
       <c r="AO17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AP17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR17">
         <v>20</v>
@@ -6591,13 +6591,13 @@
         <v>7</v>
       </c>
       <c r="AX17">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AY17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA17">
         <v>16.5</v>
@@ -6618,13 +6618,13 @@
         <v>7</v>
       </c>
       <c r="BG17">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BH17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ17">
         <v>39</v>
@@ -6645,13 +6645,13 @@
         <v>15</v>
       </c>
       <c r="BP17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BQ17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS17">
         <v>44</v>
@@ -6672,13 +6672,13 @@
         <v>15</v>
       </c>
       <c r="BY17">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BZ17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB17">
         <v>38.5</v>
@@ -6699,7 +6699,7 @@
         <v>15</v>
       </c>
       <c r="CH17">
-        <v>89.17</v>
+        <v>44</v>
       </c>
       <c r="CI17">
         <v>79</v>
@@ -6708,7 +6708,7 @@
         <v>34</v>
       </c>
       <c r="CK17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CL17">
         <v>85</v>
@@ -6717,7 +6717,7 @@
         <v>87.5</v>
       </c>
       <c r="CN17">
-        <v>78.33</v>
+        <v>38</v>
       </c>
       <c r="CO17">
         <v>79</v>
@@ -6726,7 +6726,7 @@
         <v>48.5</v>
       </c>
       <c r="CQ17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR17">
         <v>100</v>
@@ -6735,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="CT17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU17">
         <v>100</v>
@@ -6744,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="CW17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX17">
         <v>100</v>
@@ -6780,16 +6780,16 @@
         <v>137</v>
       </c>
       <c r="DI17">
-        <v>680.5</v>
+        <v>545</v>
       </c>
       <c r="DJ17" t="s">
         <v>137</v>
       </c>
       <c r="DK17">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL17">
-        <v>75.6111111111111</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="DM17">
         <v>11</v>
@@ -6809,13 +6809,13 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>23</v>
@@ -6836,13 +6836,13 @@
         <v>7</v>
       </c>
       <c r="N18">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -6863,13 +6863,13 @@
         <v>7</v>
       </c>
       <c r="W18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z18">
         <v>17</v>
@@ -6890,13 +6890,13 @@
         <v>7</v>
       </c>
       <c r="AF18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI18">
         <v>18</v>
@@ -6917,13 +6917,13 @@
         <v>7</v>
       </c>
       <c r="AO18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AP18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR18">
         <v>13</v>
@@ -6944,13 +6944,13 @@
         <v>7</v>
       </c>
       <c r="AX18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AY18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA18">
         <v>12.5</v>
@@ -6971,13 +6971,13 @@
         <v>7</v>
       </c>
       <c r="BG18">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="BH18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ18">
         <v>41</v>
@@ -6998,13 +6998,13 @@
         <v>15</v>
       </c>
       <c r="BP18">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="BQ18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS18">
         <v>33</v>
@@ -7025,13 +7025,13 @@
         <v>15</v>
       </c>
       <c r="BY18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BZ18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB18">
         <v>31</v>
@@ -7052,7 +7052,7 @@
         <v>15</v>
       </c>
       <c r="CH18">
-        <v>64.17</v>
+        <v>31</v>
       </c>
       <c r="CI18">
         <v>82</v>
@@ -7061,7 +7061,7 @@
         <v>24</v>
       </c>
       <c r="CK18">
-        <v>81.67</v>
+        <v>42</v>
       </c>
       <c r="CL18">
         <v>56</v>
@@ -7070,7 +7070,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="CN18">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="CO18">
         <v>60.5</v>
@@ -7079,7 +7079,7 @@
         <v>26.5</v>
       </c>
       <c r="CQ18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR18">
         <v>100</v>
@@ -7088,7 +7088,7 @@
         <v>100</v>
       </c>
       <c r="CT18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU18">
         <v>100</v>
@@ -7097,7 +7097,7 @@
         <v>100</v>
       </c>
       <c r="CW18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX18">
         <v>100</v>
@@ -7133,16 +7133,16 @@
         <v>138</v>
       </c>
       <c r="DI18">
-        <v>533.74</v>
+        <v>425.9</v>
       </c>
       <c r="DJ18" t="s">
         <v>137</v>
       </c>
       <c r="DK18">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL18">
-        <v>59.30444444444445</v>
+        <v>56.78666666666666</v>
       </c>
       <c r="DM18">
         <v>14</v>
@@ -7162,13 +7162,13 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -7189,13 +7189,13 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>22</v>
@@ -7216,13 +7216,13 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>23</v>
@@ -7246,10 +7246,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AI19">
         <v>15</v>
@@ -7273,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AQ19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AR19">
         <v>19</v>
@@ -7297,13 +7297,13 @@
         <v>7</v>
       </c>
       <c r="AX19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BA19">
         <v>20</v>
@@ -7324,13 +7324,13 @@
         <v>7</v>
       </c>
       <c r="BG19">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="BH19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BI19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ19">
         <v>24</v>
@@ -7351,13 +7351,13 @@
         <v>15</v>
       </c>
       <c r="BP19">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BQ19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BR19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS19">
         <v>37</v>
@@ -7378,13 +7378,13 @@
         <v>15</v>
       </c>
       <c r="BY19">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="BZ19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CA19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CB19">
         <v>48</v>
@@ -7405,7 +7405,7 @@
         <v>15</v>
       </c>
       <c r="CH19">
-        <v>36.67</v>
+        <v>20</v>
       </c>
       <c r="CI19">
         <v>46</v>
@@ -7414,7 +7414,7 @@
         <v>53</v>
       </c>
       <c r="CK19">
-        <v>64.17</v>
+        <v>34</v>
       </c>
       <c r="CL19">
         <v>78</v>
@@ -7423,7 +7423,7 @@
         <v>86.5</v>
       </c>
       <c r="CN19">
-        <v>63.33</v>
+        <v>31</v>
       </c>
       <c r="CO19">
         <v>91</v>
@@ -7432,7 +7432,7 @@
         <v>39</v>
       </c>
       <c r="CQ19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CR19">
         <v>100</v>
@@ -7441,7 +7441,7 @@
         <v>100</v>
       </c>
       <c r="CT19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CU19">
         <v>100</v>
@@ -7450,7 +7450,7 @@
         <v>100</v>
       </c>
       <c r="CW19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CX19">
         <v>100</v>
@@ -7486,16 +7486,16 @@
         <v>137</v>
       </c>
       <c r="DI19">
-        <v>557.6700000000001</v>
+        <v>478.5</v>
       </c>
       <c r="DJ19" t="s">
         <v>137</v>
       </c>
       <c r="DK19">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL19">
-        <v>61.96333333333334</v>
+        <v>63.8</v>
       </c>
       <c r="DM19">
         <v>12</v>

--- a/UKG/Result_Final.xlsx
+++ b/UKG/Result_Final.xlsx
@@ -1167,22 +1167,22 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1221,13 +1221,13 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>20</v>
@@ -1248,22 +1248,22 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AJ2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO2">
         <v>21</v>
@@ -1302,13 +1302,13 @@
         <v>7</v>
       </c>
       <c r="BA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD2">
         <v>19</v>
@@ -1329,22 +1329,22 @@
         <v>15</v>
       </c>
       <c r="BJ2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BK2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BN2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP2">
         <v>48</v>
@@ -1383,13 +1383,13 @@
         <v>15</v>
       </c>
       <c r="CB2">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="CC2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE2">
         <v>43</v>
@@ -1404,10 +1404,10 @@
         <v>99</v>
       </c>
       <c r="CI2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="CJ2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CK2">
         <v>90</v>
@@ -1422,7 +1422,7 @@
         <v>81.5</v>
       </c>
       <c r="CO2">
-        <v>92.5</v>
+        <v>46</v>
       </c>
       <c r="CP2">
         <v>82</v>
@@ -1431,10 +1431,10 @@
         <v>100</v>
       </c>
       <c r="CR2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT2">
         <v>100</v>
@@ -1449,7 +1449,7 @@
         <v>100</v>
       </c>
       <c r="CX2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY2">
         <v>100</v>
@@ -1482,19 +1482,19 @@
         <v>136</v>
       </c>
       <c r="DI2">
-        <v>831.5</v>
+        <v>691</v>
       </c>
       <c r="DJ2" t="s">
         <v>136</v>
       </c>
       <c r="DK2">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL2">
-        <v>92.38888888888889</v>
+        <v>92.13333333333334</v>
       </c>
       <c r="DM2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:117">
@@ -1520,22 +1520,22 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>17.5</v>
@@ -1574,13 +1574,13 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>16</v>
@@ -1601,22 +1601,22 @@
         <v>7</v>
       </c>
       <c r="AI3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO3">
         <v>18</v>
@@ -1655,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="BA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD3">
         <v>22</v>
@@ -1682,22 +1682,22 @@
         <v>15</v>
       </c>
       <c r="BJ3">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="BK3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM3">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="BN3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP3">
         <v>44</v>
@@ -1736,13 +1736,13 @@
         <v>15</v>
       </c>
       <c r="CB3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CC3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE3">
         <v>45</v>
@@ -1757,10 +1757,10 @@
         <v>76</v>
       </c>
       <c r="CI3">
-        <v>73.33</v>
+        <v>38</v>
       </c>
       <c r="CJ3">
-        <v>93.33</v>
+        <v>47</v>
       </c>
       <c r="CK3">
         <v>79.5</v>
@@ -1775,7 +1775,7 @@
         <v>79</v>
       </c>
       <c r="CO3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CP3">
         <v>83</v>
@@ -1784,10 +1784,10 @@
         <v>100</v>
       </c>
       <c r="CR3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT3">
         <v>100</v>
@@ -1802,7 +1802,7 @@
         <v>100</v>
       </c>
       <c r="CX3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY3">
         <v>100</v>
@@ -1835,19 +1835,19 @@
         <v>136</v>
       </c>
       <c r="DI3">
-        <v>770.16</v>
+        <v>638.5</v>
       </c>
       <c r="DJ3" t="s">
         <v>136</v>
       </c>
       <c r="DK3">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL3">
-        <v>85.57333333333334</v>
+        <v>85.13333333333334</v>
       </c>
       <c r="DM3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:117">
@@ -1873,22 +1873,22 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -1927,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>17</v>
@@ -1954,22 +1954,22 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AJ4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AM4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO4">
         <v>20</v>
@@ -2008,13 +2008,13 @@
         <v>7</v>
       </c>
       <c r="BA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD4">
         <v>20</v>
@@ -2035,22 +2035,22 @@
         <v>15</v>
       </c>
       <c r="BJ4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BK4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM4">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="BN4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP4">
         <v>46</v>
@@ -2089,13 +2089,13 @@
         <v>15</v>
       </c>
       <c r="CB4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CC4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE4">
         <v>39</v>
@@ -2110,10 +2110,10 @@
         <v>95</v>
       </c>
       <c r="CI4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CJ4">
-        <v>93.33</v>
+        <v>47</v>
       </c>
       <c r="CK4">
         <v>86</v>
@@ -2128,7 +2128,7 @@
         <v>66.5</v>
       </c>
       <c r="CO4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CP4">
         <v>76</v>
@@ -2137,10 +2137,10 @@
         <v>100</v>
       </c>
       <c r="CR4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT4">
         <v>100</v>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="CX4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY4">
         <v>100</v>
@@ -2188,16 +2188,16 @@
         <v>136</v>
       </c>
       <c r="DI4">
-        <v>803.8299999999999</v>
+        <v>657.5</v>
       </c>
       <c r="DJ4" t="s">
         <v>136</v>
       </c>
       <c r="DK4">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL4">
-        <v>89.31444444444445</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="DM4">
         <v>4</v>
@@ -2226,22 +2226,22 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>16</v>
@@ -2280,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>19</v>
@@ -2307,22 +2307,22 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AM5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <v>16</v>
@@ -2361,13 +2361,13 @@
         <v>7</v>
       </c>
       <c r="BA5">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="BB5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD5">
         <v>15</v>
@@ -2388,22 +2388,22 @@
         <v>15</v>
       </c>
       <c r="BJ5">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BK5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM5">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BN5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP5">
         <v>28</v>
@@ -2442,13 +2442,13 @@
         <v>15</v>
       </c>
       <c r="CB5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="CC5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE5">
         <v>36</v>
@@ -2463,10 +2463,10 @@
         <v>74</v>
       </c>
       <c r="CI5">
-        <v>66.67</v>
+        <v>34</v>
       </c>
       <c r="CJ5">
-        <v>76.67</v>
+        <v>38</v>
       </c>
       <c r="CK5">
         <v>60</v>
@@ -2481,7 +2481,7 @@
         <v>60</v>
       </c>
       <c r="CO5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="CP5">
         <v>70</v>
@@ -2490,10 +2490,10 @@
         <v>100</v>
       </c>
       <c r="CR5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT5">
         <v>100</v>
@@ -2508,7 +2508,7 @@
         <v>100</v>
       </c>
       <c r="CX5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY5">
         <v>100</v>
@@ -2541,16 +2541,16 @@
         <v>136</v>
       </c>
       <c r="DI5">
-        <v>613.84</v>
+        <v>507.5</v>
       </c>
       <c r="DJ5" t="s">
         <v>136</v>
       </c>
       <c r="DK5">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL5">
-        <v>68.20444444444445</v>
+        <v>67.66666666666666</v>
       </c>
       <c r="DM5">
         <v>9</v>
@@ -2579,22 +2579,22 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>11</v>
@@ -2660,22 +2660,22 @@
         <v>7</v>
       </c>
       <c r="AI6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD6">
         <v>20</v>
@@ -2741,22 +2741,22 @@
         <v>15</v>
       </c>
       <c r="BJ6">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="BK6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM6">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BN6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP6">
         <v>12</v>
@@ -2795,13 +2795,13 @@
         <v>15</v>
       </c>
       <c r="CB6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="CC6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE6">
         <v>38</v>
@@ -2816,10 +2816,10 @@
         <v>36</v>
       </c>
       <c r="CI6">
-        <v>46.67</v>
+        <v>22</v>
       </c>
       <c r="CJ6">
-        <v>51.67</v>
+        <v>28</v>
       </c>
       <c r="CK6">
         <v>12</v>
@@ -2834,7 +2834,7 @@
         <v>12.5</v>
       </c>
       <c r="CO6">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="CP6">
         <v>69</v>
@@ -2843,10 +2843,10 @@
         <v>100</v>
       </c>
       <c r="CR6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT6">
         <v>100</v>
@@ -2861,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="CX6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY6">
         <v>100</v>
@@ -2894,19 +2894,19 @@
         <v>136</v>
       </c>
       <c r="DI6">
-        <v>394.34</v>
+        <v>327</v>
       </c>
       <c r="DJ6" t="s">
         <v>136</v>
       </c>
       <c r="DK6">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL6">
-        <v>43.81555555555556</v>
+        <v>43.6</v>
       </c>
       <c r="DM6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:117">
@@ -2932,22 +2932,22 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>8</v>
@@ -2986,13 +2986,13 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>15</v>
@@ -3013,22 +3013,22 @@
         <v>7</v>
       </c>
       <c r="AI7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL7">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <v>8</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD7">
         <v>12</v>
@@ -3094,22 +3094,22 @@
         <v>15</v>
       </c>
       <c r="BJ7">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BK7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM7">
+        <v>18</v>
+      </c>
+      <c r="BN7">
         <v>30</v>
       </c>
-      <c r="BN7">
-        <v>50</v>
-      </c>
       <c r="BO7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP7">
         <v>26</v>
@@ -3148,13 +3148,13 @@
         <v>15</v>
       </c>
       <c r="CB7">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="CC7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE7">
         <v>22</v>
@@ -3169,10 +3169,10 @@
         <v>46</v>
       </c>
       <c r="CI7">
-        <v>71.67</v>
+        <v>37</v>
       </c>
       <c r="CJ7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="CK7">
         <v>42</v>
@@ -3187,7 +3187,7 @@
         <v>13.5</v>
       </c>
       <c r="CO7">
-        <v>49.17</v>
+        <v>25</v>
       </c>
       <c r="CP7">
         <v>49</v>
@@ -3196,10 +3196,10 @@
         <v>100</v>
       </c>
       <c r="CR7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT7">
         <v>100</v>
@@ -3214,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="CX7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY7">
         <v>100</v>
@@ -3247,16 +3247,16 @@
         <v>136</v>
       </c>
       <c r="DI7">
-        <v>441.84</v>
+        <v>353</v>
       </c>
       <c r="DJ7" t="s">
         <v>136</v>
       </c>
       <c r="DK7">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL7">
-        <v>49.09333333333334</v>
+        <v>47.06666666666667</v>
       </c>
       <c r="DM7">
         <v>12</v>
@@ -3285,22 +3285,22 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>8</v>
@@ -3339,13 +3339,13 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>13</v>
@@ -3366,22 +3366,22 @@
         <v>7</v>
       </c>
       <c r="AI8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL8">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>8</v>
@@ -3420,13 +3420,13 @@
         <v>7</v>
       </c>
       <c r="BA8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BB8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD8">
         <v>14</v>
@@ -3447,22 +3447,22 @@
         <v>15</v>
       </c>
       <c r="BJ8">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="BK8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM8">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="BN8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP8">
         <v>35</v>
@@ -3501,13 +3501,13 @@
         <v>15</v>
       </c>
       <c r="CB8">
+        <v>18</v>
+      </c>
+      <c r="CC8">
         <v>30</v>
       </c>
-      <c r="CC8">
-        <v>50</v>
-      </c>
       <c r="CD8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE8">
         <v>31</v>
@@ -3522,10 +3522,10 @@
         <v>58</v>
       </c>
       <c r="CI8">
-        <v>63.33</v>
+        <v>32</v>
       </c>
       <c r="CJ8">
-        <v>80.83</v>
+        <v>41</v>
       </c>
       <c r="CK8">
         <v>51</v>
@@ -3540,7 +3540,7 @@
         <v>41</v>
       </c>
       <c r="CO8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="CP8">
         <v>58</v>
@@ -3549,10 +3549,10 @@
         <v>100</v>
       </c>
       <c r="CR8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT8">
         <v>100</v>
@@ -3567,7 +3567,7 @@
         <v>100</v>
       </c>
       <c r="CX8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY8">
         <v>100</v>
@@ -3600,19 +3600,19 @@
         <v>136</v>
       </c>
       <c r="DI8">
-        <v>526.16</v>
+        <v>422</v>
       </c>
       <c r="DJ8" t="s">
         <v>136</v>
       </c>
       <c r="DK8">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL8">
-        <v>58.46222222222222</v>
+        <v>56.26666666666667</v>
       </c>
       <c r="DM8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:117">
@@ -3638,22 +3638,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>13</v>
@@ -3692,13 +3692,13 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>8</v>
@@ -3719,22 +3719,22 @@
         <v>7</v>
       </c>
       <c r="AI9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL9">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>13</v>
@@ -3773,13 +3773,13 @@
         <v>7</v>
       </c>
       <c r="BA9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BB9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD9">
         <v>11</v>
@@ -3800,22 +3800,22 @@
         <v>15</v>
       </c>
       <c r="BJ9">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="BK9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM9">
+        <v>18</v>
+      </c>
+      <c r="BN9">
         <v>30</v>
       </c>
-      <c r="BN9">
-        <v>50</v>
-      </c>
       <c r="BO9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP9">
         <v>30</v>
@@ -3854,13 +3854,13 @@
         <v>15</v>
       </c>
       <c r="CB9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="CC9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE9">
         <v>24</v>
@@ -3875,10 +3875,10 @@
         <v>36</v>
       </c>
       <c r="CI9">
-        <v>58.33</v>
+        <v>29</v>
       </c>
       <c r="CJ9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="CK9">
         <v>56</v>
@@ -3893,7 +3893,7 @@
         <v>60</v>
       </c>
       <c r="CO9">
-        <v>47.5</v>
+        <v>24</v>
       </c>
       <c r="CP9">
         <v>43</v>
@@ -3902,10 +3902,10 @@
         <v>100</v>
       </c>
       <c r="CR9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT9">
         <v>100</v>
@@ -3920,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="CX9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY9">
         <v>100</v>
@@ -3953,19 +3953,19 @@
         <v>136</v>
       </c>
       <c r="DI9">
-        <v>510.83</v>
+        <v>431</v>
       </c>
       <c r="DJ9" t="s">
         <v>136</v>
       </c>
       <c r="DK9">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL9">
-        <v>56.75888888888889</v>
+        <v>57.46666666666667</v>
       </c>
       <c r="DM9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:117">
@@ -3994,19 +3994,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -4075,19 +4075,19 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL10">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -4129,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD10">
         <v>8</v>
@@ -4153,22 +4153,22 @@
         <v>15</v>
       </c>
       <c r="BJ10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM10">
-        <v>13.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="BN10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP10">
         <v>19</v>
@@ -4207,13 +4207,13 @@
         <v>15</v>
       </c>
       <c r="CB10">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="CC10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE10">
         <v>31</v>
@@ -4228,10 +4228,10 @@
         <v>16</v>
       </c>
       <c r="CI10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CJ10">
-        <v>25.83</v>
+        <v>13</v>
       </c>
       <c r="CK10">
         <v>19</v>
@@ -4246,7 +4246,7 @@
         <v>10.5</v>
       </c>
       <c r="CO10">
-        <v>16.67</v>
+        <v>10</v>
       </c>
       <c r="CP10">
         <v>39</v>
@@ -4255,10 +4255,10 @@
         <v>100</v>
       </c>
       <c r="CR10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT10">
         <v>100</v>
@@ -4273,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="CX10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY10">
         <v>100</v>
@@ -4306,16 +4306,16 @@
         <v>136</v>
       </c>
       <c r="DI10">
-        <v>231</v>
+        <v>205.5</v>
       </c>
       <c r="DJ10" t="s">
         <v>137</v>
       </c>
       <c r="DK10">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL10">
-        <v>25.66666666666666</v>
+        <v>27.4</v>
       </c>
       <c r="DM10">
         <v>16</v>
@@ -4347,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -4479,13 +4479,13 @@
         <v>7</v>
       </c>
       <c r="BA11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BB11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD11">
         <v>9</v>
@@ -4506,22 +4506,22 @@
         <v>15</v>
       </c>
       <c r="BJ11">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="BK11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM11">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BN11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP11">
         <v>39</v>
@@ -4560,13 +4560,13 @@
         <v>15</v>
       </c>
       <c r="CB11">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="CC11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE11">
         <v>20</v>
@@ -4581,10 +4581,10 @@
         <v>3</v>
       </c>
       <c r="CI11">
-        <v>36.67</v>
+        <v>22</v>
       </c>
       <c r="CJ11">
-        <v>66.67</v>
+        <v>35</v>
       </c>
       <c r="CK11">
         <v>39</v>
@@ -4599,7 +4599,7 @@
         <v>71</v>
       </c>
       <c r="CO11">
-        <v>53.33</v>
+        <v>28</v>
       </c>
       <c r="CP11">
         <v>29</v>
@@ -4608,10 +4608,10 @@
         <v>100</v>
       </c>
       <c r="CR11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT11">
         <v>100</v>
@@ -4626,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="CX11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY11">
         <v>100</v>
@@ -4659,19 +4659,19 @@
         <v>137</v>
       </c>
       <c r="DI11">
-        <v>414.67</v>
+        <v>343</v>
       </c>
       <c r="DJ11" t="s">
         <v>136</v>
       </c>
       <c r="DK11">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL11">
-        <v>46.07444444444445</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="DM11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:117">
@@ -4697,22 +4697,22 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>19</v>
@@ -4751,13 +4751,13 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC12">
         <v>14</v>
@@ -4778,22 +4778,22 @@
         <v>7</v>
       </c>
       <c r="AI12">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>19</v>
@@ -4832,13 +4832,13 @@
         <v>7</v>
       </c>
       <c r="BA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD12">
         <v>14</v>
@@ -4859,22 +4859,22 @@
         <v>15</v>
       </c>
       <c r="BJ12">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="BK12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM12">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="BN12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP12">
         <v>39</v>
@@ -4913,13 +4913,13 @@
         <v>15</v>
       </c>
       <c r="CB12">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="CC12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE12">
         <v>28</v>
@@ -4934,10 +4934,10 @@
         <v>49</v>
       </c>
       <c r="CI12">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="CJ12">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="CK12">
         <v>77</v>
@@ -4952,7 +4952,7 @@
         <v>72.5</v>
       </c>
       <c r="CO12">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="CP12">
         <v>56</v>
@@ -4961,10 +4961,10 @@
         <v>100</v>
       </c>
       <c r="CR12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT12">
         <v>100</v>
@@ -4979,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="CX12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY12">
         <v>100</v>
@@ -5012,16 +5012,16 @@
         <v>136</v>
       </c>
       <c r="DI12">
-        <v>705.66</v>
+        <v>566</v>
       </c>
       <c r="DJ12" t="s">
         <v>136</v>
       </c>
       <c r="DK12">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL12">
-        <v>78.40666666666665</v>
+        <v>75.46666666666667</v>
       </c>
       <c r="DM12">
         <v>7</v>
@@ -5050,22 +5050,22 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>24</v>
@@ -5104,13 +5104,13 @@
         <v>7</v>
       </c>
       <c r="Z13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC13">
         <v>15</v>
@@ -5131,22 +5131,22 @@
         <v>7</v>
       </c>
       <c r="AI13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AJ13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>24</v>
@@ -5185,13 +5185,13 @@
         <v>7</v>
       </c>
       <c r="BA13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD13">
         <v>15</v>
@@ -5212,22 +5212,22 @@
         <v>15</v>
       </c>
       <c r="BJ13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BK13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BN13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP13">
         <v>40</v>
@@ -5266,13 +5266,13 @@
         <v>15</v>
       </c>
       <c r="CB13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CC13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE13">
         <v>33</v>
@@ -5287,10 +5287,10 @@
         <v>99</v>
       </c>
       <c r="CI13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CJ13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CK13">
         <v>88</v>
@@ -5305,7 +5305,7 @@
         <v>94</v>
       </c>
       <c r="CO13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CP13">
         <v>63</v>
@@ -5314,10 +5314,10 @@
         <v>100</v>
       </c>
       <c r="CR13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT13">
         <v>100</v>
@@ -5332,7 +5332,7 @@
         <v>100</v>
       </c>
       <c r="CX13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY13">
         <v>100</v>
@@ -5365,19 +5365,19 @@
         <v>136</v>
       </c>
       <c r="DI13">
-        <v>832</v>
+        <v>682</v>
       </c>
       <c r="DJ13" t="s">
         <v>136</v>
       </c>
       <c r="DK13">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL13">
-        <v>92.44444444444444</v>
+        <v>90.93333333333334</v>
       </c>
       <c r="DM13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:117">
@@ -5403,22 +5403,22 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>24</v>
@@ -5457,13 +5457,13 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC14">
         <v>16</v>
@@ -5484,22 +5484,22 @@
         <v>7</v>
       </c>
       <c r="AI14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AJ14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>24</v>
@@ -5538,13 +5538,13 @@
         <v>7</v>
       </c>
       <c r="BA14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BB14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD14">
         <v>16</v>
@@ -5565,22 +5565,22 @@
         <v>15</v>
       </c>
       <c r="BJ14">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BK14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BN14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP14">
         <v>44</v>
@@ -5619,13 +5619,13 @@
         <v>15</v>
       </c>
       <c r="CB14">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="CC14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE14">
         <v>42</v>
@@ -5640,10 +5640,10 @@
         <v>99</v>
       </c>
       <c r="CI14">
-        <v>91.67</v>
+        <v>45</v>
       </c>
       <c r="CJ14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CK14">
         <v>92</v>
@@ -5658,7 +5658,7 @@
         <v>78</v>
       </c>
       <c r="CO14">
-        <v>93.33</v>
+        <v>47</v>
       </c>
       <c r="CP14">
         <v>74</v>
@@ -5667,10 +5667,10 @@
         <v>100</v>
       </c>
       <c r="CR14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT14">
         <v>100</v>
@@ -5685,7 +5685,7 @@
         <v>100</v>
       </c>
       <c r="CX14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY14">
         <v>100</v>
@@ -5718,16 +5718,16 @@
         <v>136</v>
       </c>
       <c r="DI14">
-        <v>809.5000000000001</v>
+        <v>666.5</v>
       </c>
       <c r="DJ14" t="s">
         <v>136</v>
       </c>
       <c r="DK14">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL14">
-        <v>89.94444444444446</v>
+        <v>88.86666666666667</v>
       </c>
       <c r="DM14">
         <v>3</v>
@@ -5756,22 +5756,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>13.5</v>
@@ -5810,13 +5810,13 @@
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC15">
         <v>11</v>
@@ -5837,22 +5837,22 @@
         <v>7</v>
       </c>
       <c r="AI15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AJ15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL15">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AM15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>14</v>
@@ -5891,13 +5891,13 @@
         <v>7</v>
       </c>
       <c r="BA15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD15">
         <v>15</v>
@@ -5918,22 +5918,22 @@
         <v>15</v>
       </c>
       <c r="BJ15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BK15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM15">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="BN15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP15">
         <v>23</v>
@@ -5972,13 +5972,13 @@
         <v>15</v>
       </c>
       <c r="CB15">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="CC15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE15">
         <v>29</v>
@@ -5993,10 +5993,10 @@
         <v>70</v>
       </c>
       <c r="CI15">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="CJ15">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="CK15">
         <v>50.5</v>
@@ -6011,7 +6011,7 @@
         <v>60.5</v>
       </c>
       <c r="CO15">
-        <v>93.33</v>
+        <v>46</v>
       </c>
       <c r="CP15">
         <v>55</v>
@@ -6020,10 +6020,10 @@
         <v>100</v>
       </c>
       <c r="CR15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT15">
         <v>100</v>
@@ -6038,7 +6038,7 @@
         <v>100</v>
       </c>
       <c r="CX15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY15">
         <v>100</v>
@@ -6071,16 +6071,16 @@
         <v>136</v>
       </c>
       <c r="DI15">
-        <v>639.33</v>
+        <v>513</v>
       </c>
       <c r="DJ15" t="s">
         <v>136</v>
       </c>
       <c r="DK15">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL15">
-        <v>71.03666666666668</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="DM15">
         <v>8</v>
@@ -6112,19 +6112,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -6193,19 +6193,19 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -6247,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -6274,19 +6274,19 @@
         <v>0</v>
       </c>
       <c r="BK16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM16">
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -6328,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="CC16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -6373,10 +6373,10 @@
         <v>100</v>
       </c>
       <c r="CR16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT16">
         <v>100</v>
@@ -6391,7 +6391,7 @@
         <v>100</v>
       </c>
       <c r="CX16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY16">
         <v>100</v>
@@ -6430,7 +6430,7 @@
         <v>137</v>
       </c>
       <c r="DK16">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL16">
         <v>0</v>
@@ -6462,22 +6462,22 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>20</v>
@@ -6516,13 +6516,13 @@
         <v>7</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC17">
         <v>17</v>
@@ -6543,22 +6543,22 @@
         <v>7</v>
       </c>
       <c r="AI17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AJ17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL17">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AM17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>20</v>
@@ -6597,13 +6597,13 @@
         <v>7</v>
       </c>
       <c r="BA17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BB17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD17">
         <v>17</v>
@@ -6624,22 +6624,22 @@
         <v>15</v>
       </c>
       <c r="BJ17">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="BK17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM17">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="BN17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP17">
         <v>42</v>
@@ -6678,13 +6678,13 @@
         <v>15</v>
       </c>
       <c r="CB17">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="CC17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE17">
         <v>39</v>
@@ -6699,10 +6699,10 @@
         <v>95</v>
       </c>
       <c r="CI17">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="CJ17">
-        <v>85.83</v>
+        <v>44</v>
       </c>
       <c r="CK17">
         <v>82</v>
@@ -6717,7 +6717,7 @@
         <v>66</v>
       </c>
       <c r="CO17">
-        <v>93.33</v>
+        <v>46</v>
       </c>
       <c r="CP17">
         <v>73</v>
@@ -6726,10 +6726,10 @@
         <v>100</v>
       </c>
       <c r="CR17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT17">
         <v>100</v>
@@ -6744,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="CX17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY17">
         <v>100</v>
@@ -6777,19 +6777,19 @@
         <v>136</v>
       </c>
       <c r="DI17">
-        <v>774.33</v>
+        <v>636.5</v>
       </c>
       <c r="DJ17" t="s">
         <v>136</v>
       </c>
       <c r="DK17">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL17">
-        <v>86.03666666666668</v>
+        <v>84.86666666666667</v>
       </c>
       <c r="DM17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:117">
@@ -6815,22 +6815,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -6869,13 +6869,13 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC18">
         <v>9</v>
@@ -6896,22 +6896,22 @@
         <v>7</v>
       </c>
       <c r="AI18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AJ18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AL18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>7</v>
@@ -6950,13 +6950,13 @@
         <v>7</v>
       </c>
       <c r="BA18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BB18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BD18">
         <v>9</v>
@@ -6977,22 +6977,22 @@
         <v>15</v>
       </c>
       <c r="BJ18">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="BK18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BL18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BM18">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="BN18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BO18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BP18">
         <v>10</v>
@@ -7031,13 +7031,13 @@
         <v>15</v>
       </c>
       <c r="CB18">
-        <v>31.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="CC18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="CD18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CE18">
         <v>21</v>
@@ -7052,10 +7052,10 @@
         <v>44</v>
       </c>
       <c r="CI18">
-        <v>58.33</v>
+        <v>29</v>
       </c>
       <c r="CJ18">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="CK18">
         <v>24</v>
@@ -7070,7 +7070,7 @@
         <v>13.5</v>
       </c>
       <c r="CO18">
-        <v>69.17</v>
+        <v>34</v>
       </c>
       <c r="CP18">
         <v>39</v>
@@ -7079,10 +7079,10 @@
         <v>100</v>
       </c>
       <c r="CR18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CS18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CT18">
         <v>100</v>
@@ -7097,7 +7097,7 @@
         <v>100</v>
       </c>
       <c r="CX18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="CY18">
         <v>100</v>
@@ -7130,19 +7130,19 @@
         <v>136</v>
       </c>
       <c r="DI18">
-        <v>419</v>
+        <v>320.5</v>
       </c>
       <c r="DJ18" t="s">
         <v>136</v>
       </c>
       <c r="DK18">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="DL18">
-        <v>46.55555555555556</v>
+        <v>42.73333333333333</v>
       </c>
       <c r="DM18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
